--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D6EA3D-49FA-4094-A001-91E3AF5F31CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43507AF8-B3C2-4927-A592-E7153B511EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
   <si>
     <t>Project Name</t>
   </si>
@@ -398,10 +398,13 @@
     <t>14H</t>
   </si>
   <si>
-    <t>7H</t>
-  </si>
-  <si>
-    <t>77H</t>
+    <t>20H</t>
+  </si>
+  <si>
+    <t>11H</t>
+  </si>
+  <si>
+    <t>111H</t>
   </si>
 </sst>
 </file>
@@ -691,11 +694,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -703,191 +887,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,132 +1243,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="I1" s="6" t="s">
+      <c r="D1" s="22"/>
+      <c r="I1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="I2" s="56" t="s">
+      <c r="D2" s="24"/>
+      <c r="I2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="I3" s="62">
+      <c r="D3" s="24"/>
+      <c r="I3" s="60">
         <v>45995</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="59" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="I4" s="56" t="s">
+      <c r="D4" s="24"/>
+      <c r="I4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="I5" s="1" t="s">
+      <c r="D5" s="24"/>
+      <c r="I5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="D6" s="24"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="59" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="I7" s="56" t="s">
+      <c r="D7" s="24"/>
+      <c r="I7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="53" t="s">
         <v>16</v>
       </c>
@@ -1374,1256 +1377,1369 @@
       <c r="P7" s="55"/>
     </row>
     <row r="12" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="26"/>
+      <c r="O12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="10" t="s">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="10"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="16" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="17"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="22" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="20"/>
+      <c r="K14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="22" t="s">
+      <c r="L14" s="20"/>
+      <c r="M14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="22" t="s">
+      <c r="N14" s="20"/>
+      <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24" t="s">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="23"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="22" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="22" t="s">
+      <c r="L15" s="20"/>
+      <c r="M15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="22" t="s">
+      <c r="N15" s="20"/>
+      <c r="O15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24" t="s">
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="23"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="22" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22" t="s">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22" t="s">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="24" t="s">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="22" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="22" t="s">
+      <c r="J17" s="20"/>
+      <c r="K17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="20"/>
+      <c r="M17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="22" t="s">
+      <c r="N17" s="20"/>
+      <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24" t="s">
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="23"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="22" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22" t="s">
+      <c r="J18" s="20"/>
+      <c r="K18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="22" t="s">
+      <c r="L18" s="20"/>
+      <c r="M18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="22" t="s">
+      <c r="N18" s="20"/>
+      <c r="O18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24" t="s">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="23"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="22" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22" t="s">
+      <c r="J19" s="20"/>
+      <c r="K19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="22" t="s">
+      <c r="L19" s="20"/>
+      <c r="M19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="22" t="s">
+      <c r="N19" s="20"/>
+      <c r="O19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="22" t="s">
+      <c r="P19" s="20"/>
+      <c r="Q19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="23"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="28" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="28" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="28" t="s">
+      <c r="N20" s="5"/>
+      <c r="O20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30" t="s">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R20" s="29"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="25"/>
+      <c r="M24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="10" t="s">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="10"/>
+      <c r="R24" s="27"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="16" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="16" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16" t="s">
+      <c r="L25" s="18"/>
+      <c r="M25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="16" t="s">
+      <c r="N25" s="18"/>
+      <c r="O25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="18" t="s">
+      <c r="P25" s="18"/>
+      <c r="Q25" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="17"/>
+      <c r="R25" s="18"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="22" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="22" t="s">
+      <c r="J26" s="20"/>
+      <c r="K26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="22" t="s">
+      <c r="L26" s="20"/>
+      <c r="M26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="22" t="s">
+      <c r="N26" s="20"/>
+      <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24" t="s">
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="23"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="22" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="22" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="22" t="s">
+      <c r="J27" s="20"/>
+      <c r="K27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="22" t="s">
+      <c r="L27" s="20"/>
+      <c r="M27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="22" t="s">
+      <c r="N27" s="20"/>
+      <c r="O27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24" t="s">
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="23"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="22" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="22" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="22" t="s">
+      <c r="J28" s="20"/>
+      <c r="K28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="22" t="s">
+      <c r="L28" s="20"/>
+      <c r="M28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="22" t="s">
+      <c r="N28" s="20"/>
+      <c r="O28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24" t="s">
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="23"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="22" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="22" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="22" t="s">
+      <c r="J29" s="20"/>
+      <c r="K29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="22" t="s">
+      <c r="L29" s="20"/>
+      <c r="M29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="22" t="s">
+      <c r="N29" s="20"/>
+      <c r="O29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24" t="s">
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="23"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="22" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="22" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="22" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="22" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="22" t="s">
+      <c r="N30" s="20"/>
+      <c r="O30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24" t="s">
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="23"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="22" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="22" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="22" t="s">
+      <c r="J31" s="20"/>
+      <c r="K31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="22" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="23"/>
-      <c r="O31" s="22" t="s">
+      <c r="N31" s="20"/>
+      <c r="O31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="22" t="s">
+      <c r="P31" s="20"/>
+      <c r="Q31" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="23"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="28" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="28" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="28" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="28" t="s">
+      <c r="N32" s="5"/>
+      <c r="O32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30" t="s">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="29"/>
+      <c r="R32" s="5"/>
     </row>
     <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="11" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="25"/>
+      <c r="I35" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11" t="s">
+      <c r="J35" s="25"/>
+      <c r="K35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11" t="s">
+      <c r="L35" s="25"/>
+      <c r="M35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11" t="s">
+      <c r="N35" s="25"/>
+      <c r="O35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="10" t="s">
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="10"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="31" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="16" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="16" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="16" t="s">
+      <c r="L36" s="18"/>
+      <c r="M36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="16" t="s">
+      <c r="N36" s="18"/>
+      <c r="O36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="18" t="s">
+      <c r="P36" s="18"/>
+      <c r="Q36" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="17"/>
+      <c r="R36" s="18"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="22" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="32" t="s">
+      <c r="H37" s="20"/>
+      <c r="I37" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="22" t="s">
+      <c r="J37" s="32"/>
+      <c r="K37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="22" t="s">
+      <c r="L37" s="20"/>
+      <c r="M37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="22" t="s">
+      <c r="N37" s="20"/>
+      <c r="O37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="24" t="s">
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R37" s="23"/>
+      <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="22" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="22" t="s">
+      <c r="H38" s="20"/>
+      <c r="I38" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="22" t="s">
+      <c r="J38" s="20"/>
+      <c r="K38" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="22" t="s">
+      <c r="L38" s="20"/>
+      <c r="M38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="22" t="s">
+      <c r="N38" s="20"/>
+      <c r="O38" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="24" t="s">
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="23"/>
+      <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="22" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="22" t="s">
+      <c r="H39" s="20"/>
+      <c r="I39" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="22" t="s">
+      <c r="J39" s="20"/>
+      <c r="K39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="22" t="s">
+      <c r="L39" s="20"/>
+      <c r="M39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="22" t="s">
+      <c r="N39" s="20"/>
+      <c r="O39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="24" t="s">
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="23"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="22" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="22" t="s">
+      <c r="H40" s="20"/>
+      <c r="I40" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="22" t="s">
+      <c r="J40" s="20"/>
+      <c r="K40" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="22" t="s">
+      <c r="L40" s="20"/>
+      <c r="M40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="22" t="s">
+      <c r="N40" s="20"/>
+      <c r="O40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="24" t="s">
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="R40" s="23"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="22" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="22" t="s">
+      <c r="H41" s="20"/>
+      <c r="I41" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="22" t="s">
+      <c r="J41" s="20"/>
+      <c r="K41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="22" t="s">
+      <c r="L41" s="20"/>
+      <c r="M41" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="22" t="s">
+      <c r="N41" s="20"/>
+      <c r="O41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24" t="s">
+      <c r="P41" s="20"/>
+      <c r="Q41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="23"/>
+      <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="22" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="22" t="s">
+      <c r="H42" s="20"/>
+      <c r="I42" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="22" t="s">
+      <c r="J42" s="20"/>
+      <c r="K42" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="23"/>
-      <c r="M42" s="22" t="s">
+      <c r="L42" s="20"/>
+      <c r="M42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="22" t="s">
+      <c r="N42" s="20"/>
+      <c r="O42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="22" t="s">
+      <c r="P42" s="20"/>
+      <c r="Q42" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="23"/>
+      <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="22" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="22" t="s">
+      <c r="H43" s="20"/>
+      <c r="I43" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="23"/>
-      <c r="K43" s="22" t="s">
+      <c r="J43" s="20"/>
+      <c r="K43" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="23"/>
-      <c r="M43" s="22" t="s">
+      <c r="L43" s="20"/>
+      <c r="M43" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="23"/>
-      <c r="O43" s="22" t="s">
+      <c r="N43" s="20"/>
+      <c r="O43" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="22" t="s">
+      <c r="P43" s="20"/>
+      <c r="Q43" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="23"/>
+      <c r="R43" s="20"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="22" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="22" t="s">
+      <c r="H44" s="20"/>
+      <c r="I44" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="23"/>
-      <c r="K44" s="22" t="s">
+      <c r="J44" s="20"/>
+      <c r="K44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="22" t="s">
+      <c r="L44" s="20"/>
+      <c r="M44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="22" t="s">
+      <c r="N44" s="20"/>
+      <c r="O44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="22" t="s">
+      <c r="P44" s="20"/>
+      <c r="Q44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="23"/>
+      <c r="R44" s="20"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="28" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="28" t="s">
+      <c r="H45" s="5"/>
+      <c r="I45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="28" t="s">
+      <c r="J45" s="5"/>
+      <c r="K45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="29"/>
-      <c r="M45" s="28" t="s">
+      <c r="L45" s="5"/>
+      <c r="M45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="29"/>
-      <c r="O45" s="28" t="s">
+      <c r="N45" s="5"/>
+      <c r="O45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30" t="s">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="R45" s="29"/>
+      <c r="R45" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="23"/>
+      <c r="H49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10" t="s">
+      <c r="I49" s="23"/>
+      <c r="J49" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11" t="s">
+      <c r="K49" s="27"/>
+      <c r="L49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="12"/>
-      <c r="N49" s="10" t="s">
+      <c r="M49" s="26"/>
+      <c r="N49" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="10"/>
+      <c r="O49" s="27"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="18"/>
+      <c r="H50" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="16" t="s">
+      <c r="I50" s="18"/>
+      <c r="J50" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="34" t="s">
+      <c r="K50" s="18"/>
+      <c r="L50" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="35"/>
-      <c r="N50" s="18" t="s">
+      <c r="M50" s="29"/>
+      <c r="N50" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="17"/>
+      <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="16" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="17"/>
-      <c r="N51" s="24" t="s">
+      <c r="M51" s="18"/>
+      <c r="N51" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="23"/>
+      <c r="O51" s="20"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="23"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="20"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="23"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="20"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="29"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="5"/>
     </row>
     <row r="58" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9" t="s">
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9" t="s">
+      <c r="H58" s="23"/>
+      <c r="I58" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9" t="s">
+      <c r="J58" s="23"/>
+      <c r="K58" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="10" t="s">
+      <c r="L58" s="23"/>
+      <c r="M58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="10"/>
+      <c r="N58" s="27"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="31" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="18"/>
+      <c r="I59" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="16" t="s">
+      <c r="J59" s="18"/>
+      <c r="K59" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="16" t="s">
+      <c r="L59" s="18"/>
+      <c r="M59" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="17"/>
+      <c r="N59" s="18"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="23"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="20"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="23"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="20"/>
     </row>
     <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="29"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="A59:C62"/>
-    <mergeCell ref="D59:F62"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A13:C20"/>
+    <mergeCell ref="D13:F20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A25:C32"/>
+    <mergeCell ref="D25:F32"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:C45"/>
+    <mergeCell ref="D36:F45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
@@ -2641,188 +2757,75 @@
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:C45"/>
-    <mergeCell ref="D36:F45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A25:C32"/>
-    <mergeCell ref="D25:F32"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A13:C20"/>
-    <mergeCell ref="D13:F20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A59:C62"/>
+    <mergeCell ref="D59:F62"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2833,7 +2836,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,102 +2848,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="68"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="68" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="68"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="68"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="68"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="68">
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43507AF8-B3C2-4927-A592-E7153B511EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB89190-0FDF-4A9B-98EA-E572BCDD0A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
   </bookViews>
   <sheets>
     <sheet name="planning" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="123">
   <si>
     <t>Project Name</t>
   </si>
@@ -405,6 +405,30 @@
   </si>
   <si>
     <t>111H</t>
+  </si>
+  <si>
+    <t>WP_6</t>
+  </si>
+  <si>
+    <t>PM Tasks</t>
+  </si>
+  <si>
+    <t>PM_TK_01</t>
+  </si>
+  <si>
+    <t>Release planing</t>
+  </si>
+  <si>
+    <t>Creating  backlig</t>
+  </si>
+  <si>
+    <t>Assigniing tasks</t>
+  </si>
+  <si>
+    <t>PM_TK_02</t>
+  </si>
+  <si>
+    <t>PM_TK_03</t>
   </si>
 </sst>
 </file>
@@ -698,200 +722,200 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1229,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228092DC-AB60-494E-96BB-65EF9987450B}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,441 +1267,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="I1" s="57" t="s">
+      <c r="D1" s="68"/>
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="I2" s="50" t="s">
+      <c r="D2" s="13"/>
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="I3" s="60">
+      <c r="D3" s="13"/>
+      <c r="I3" s="10">
         <v>45995</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="24" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="I4" s="50" t="s">
+      <c r="D4" s="13"/>
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="I5" s="49" t="s">
+      <c r="D5" s="13"/>
+      <c r="I5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="D6" s="13"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="I7" s="50" t="s">
+      <c r="D7" s="13"/>
+      <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="12" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="26"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="27" t="s">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="27"/>
+      <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
+      <c r="J13" s="47"/>
+      <c r="K13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17" t="s">
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="30" t="s">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="18"/>
+      <c r="R13" s="47"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="19" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="50"/>
+      <c r="M14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="19" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21" t="s">
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="20"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="19" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="19" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19" t="s">
+      <c r="N15" s="50"/>
+      <c r="O15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21" t="s">
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="20"/>
+      <c r="R15" s="50"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="19" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19" t="s">
+      <c r="L16" s="49"/>
+      <c r="M16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19" t="s">
+      <c r="N16" s="49"/>
+      <c r="O16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="21" t="s">
+      <c r="P16" s="49"/>
+      <c r="Q16" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="20"/>
+      <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="19" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19" t="s">
+      <c r="J17" s="50"/>
+      <c r="K17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="19" t="s">
+      <c r="L17" s="50"/>
+      <c r="M17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="19" t="s">
+      <c r="N17" s="50"/>
+      <c r="O17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21" t="s">
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="20"/>
+      <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="19" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="19" t="s">
+      <c r="J18" s="50"/>
+      <c r="K18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="19" t="s">
+      <c r="L18" s="50"/>
+      <c r="M18" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="19" t="s">
+      <c r="N18" s="50"/>
+      <c r="O18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21" t="s">
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="20"/>
+      <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="19" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19" t="s">
+      <c r="J19" s="50"/>
+      <c r="K19" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="19" t="s">
+      <c r="L19" s="50"/>
+      <c r="M19" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="19" t="s">
+      <c r="N19" s="50"/>
+      <c r="O19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="19" t="s">
+      <c r="P19" s="50"/>
+      <c r="Q19" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="20"/>
+      <c r="R19" s="50"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="4" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="53"/>
+      <c r="K20" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="53"/>
+      <c r="M20" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4" t="s">
+      <c r="N20" s="53"/>
+      <c r="O20" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6" t="s">
+      <c r="P20" s="53"/>
+      <c r="Q20" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="R20" s="53"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
         <v>18</v>
       </c>
@@ -1702,278 +1726,278 @@
       <c r="O24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27" t="s">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="27"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="17" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="47"/>
+      <c r="I25" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17" t="s">
+      <c r="J25" s="47"/>
+      <c r="K25" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="17" t="s">
+      <c r="L25" s="47"/>
+      <c r="M25" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="17" t="s">
+      <c r="N25" s="47"/>
+      <c r="O25" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="30" t="s">
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="18"/>
+      <c r="R25" s="47"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="19" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="50"/>
+      <c r="I26" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19" t="s">
+      <c r="J26" s="50"/>
+      <c r="K26" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="19" t="s">
+      <c r="N26" s="50"/>
+      <c r="O26" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21" t="s">
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="20"/>
+      <c r="R26" s="50"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="19" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19" t="s">
+      <c r="H27" s="50"/>
+      <c r="I27" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19" t="s">
+      <c r="J27" s="50"/>
+      <c r="K27" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19" t="s">
+      <c r="L27" s="50"/>
+      <c r="M27" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19" t="s">
+      <c r="N27" s="50"/>
+      <c r="O27" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21" t="s">
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="20"/>
+      <c r="R27" s="50"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="19" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="50"/>
+      <c r="I28" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19" t="s">
+      <c r="J28" s="50"/>
+      <c r="K28" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="19" t="s">
+      <c r="L28" s="50"/>
+      <c r="M28" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="19" t="s">
+      <c r="N28" s="50"/>
+      <c r="O28" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="21" t="s">
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="20"/>
+      <c r="R28" s="50"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="19" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="19" t="s">
+      <c r="H29" s="50"/>
+      <c r="I29" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19" t="s">
+      <c r="J29" s="50"/>
+      <c r="K29" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="19" t="s">
+      <c r="L29" s="50"/>
+      <c r="M29" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="19" t="s">
+      <c r="N29" s="50"/>
+      <c r="O29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21" t="s">
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="20"/>
+      <c r="R29" s="50"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="19" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19" t="s">
+      <c r="H30" s="50"/>
+      <c r="I30" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19" t="s">
+      <c r="J30" s="50"/>
+      <c r="K30" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="19" t="s">
+      <c r="L30" s="50"/>
+      <c r="M30" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="19" t="s">
+      <c r="N30" s="50"/>
+      <c r="O30" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="21" t="s">
+      <c r="P30" s="50"/>
+      <c r="Q30" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="50"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="19" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="50"/>
+      <c r="I31" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="19" t="s">
+      <c r="J31" s="50"/>
+      <c r="K31" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="19" t="s">
+      <c r="L31" s="50"/>
+      <c r="M31" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="19" t="s">
+      <c r="N31" s="50"/>
+      <c r="O31" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="19" t="s">
+      <c r="P31" s="50"/>
+      <c r="Q31" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="20"/>
+      <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="4" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="53"/>
+      <c r="I32" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="53"/>
+      <c r="K32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="53"/>
+      <c r="M32" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4" t="s">
+      <c r="N32" s="53"/>
+      <c r="O32" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="6" t="s">
+      <c r="P32" s="53"/>
+      <c r="Q32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="5"/>
+      <c r="R32" s="53"/>
     </row>
     <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -1998,587 +2022,936 @@
       <c r="O35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="27" t="s">
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="27"/>
+      <c r="R35" s="28"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="16" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="17" t="s">
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17" t="s">
+      <c r="H36" s="47"/>
+      <c r="I36" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17" t="s">
+      <c r="J36" s="47"/>
+      <c r="K36" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="17" t="s">
+      <c r="L36" s="47"/>
+      <c r="M36" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="17" t="s">
+      <c r="N36" s="47"/>
+      <c r="O36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="30" t="s">
+      <c r="P36" s="47"/>
+      <c r="Q36" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="18"/>
+      <c r="R36" s="47"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="19" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="31" t="s">
+      <c r="H37" s="50"/>
+      <c r="I37" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="32"/>
-      <c r="K37" s="19" t="s">
+      <c r="J37" s="56"/>
+      <c r="K37" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="19" t="s">
+      <c r="L37" s="50"/>
+      <c r="M37" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="19" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21" t="s">
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="R37" s="20"/>
+      <c r="R37" s="50"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="19" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="19" t="s">
+      <c r="H38" s="50"/>
+      <c r="I38" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="19" t="s">
+      <c r="J38" s="50"/>
+      <c r="K38" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="19" t="s">
+      <c r="L38" s="50"/>
+      <c r="M38" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="19" t="s">
+      <c r="N38" s="50"/>
+      <c r="O38" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21" t="s">
+      <c r="P38" s="50"/>
+      <c r="Q38" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="20"/>
+      <c r="R38" s="50"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="19" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="19" t="s">
+      <c r="H39" s="50"/>
+      <c r="I39" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="19" t="s">
+      <c r="J39" s="50"/>
+      <c r="K39" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19" t="s">
+      <c r="L39" s="50"/>
+      <c r="M39" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="19" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21" t="s">
+      <c r="P39" s="50"/>
+      <c r="Q39" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="20"/>
+      <c r="R39" s="50"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="19" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="19" t="s">
+      <c r="H40" s="50"/>
+      <c r="I40" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="19" t="s">
+      <c r="J40" s="50"/>
+      <c r="K40" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="19" t="s">
+      <c r="L40" s="50"/>
+      <c r="M40" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="19" t="s">
+      <c r="N40" s="50"/>
+      <c r="O40" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21" t="s">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R40" s="20"/>
+      <c r="R40" s="50"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="19" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="19" t="s">
+      <c r="H41" s="50"/>
+      <c r="I41" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="19" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="20"/>
-      <c r="M41" s="19" t="s">
+      <c r="L41" s="50"/>
+      <c r="M41" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="19" t="s">
+      <c r="N41" s="50"/>
+      <c r="O41" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21" t="s">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="20"/>
+      <c r="R41" s="50"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="19" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="19" t="s">
+      <c r="H42" s="50"/>
+      <c r="I42" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="19" t="s">
+      <c r="J42" s="50"/>
+      <c r="K42" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="19" t="s">
+      <c r="L42" s="50"/>
+      <c r="M42" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="19" t="s">
+      <c r="N42" s="50"/>
+      <c r="O42" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="19" t="s">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="20"/>
+      <c r="R42" s="50"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="19" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="19" t="s">
+      <c r="H43" s="50"/>
+      <c r="I43" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="19" t="s">
+      <c r="J43" s="50"/>
+      <c r="K43" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="19" t="s">
+      <c r="L43" s="50"/>
+      <c r="M43" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="19" t="s">
+      <c r="N43" s="50"/>
+      <c r="O43" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="19" t="s">
+      <c r="P43" s="50"/>
+      <c r="Q43" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="20"/>
+      <c r="R43" s="50"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="19" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="19" t="s">
+      <c r="H44" s="50"/>
+      <c r="I44" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="19" t="s">
+      <c r="J44" s="50"/>
+      <c r="K44" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19" t="s">
+      <c r="L44" s="50"/>
+      <c r="M44" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="19" t="s">
+      <c r="N44" s="50"/>
+      <c r="O44" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="19" t="s">
+      <c r="P44" s="50"/>
+      <c r="Q44" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="20"/>
+      <c r="R44" s="50"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="4" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="53"/>
+      <c r="I45" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="53"/>
+      <c r="K45" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="4" t="s">
+      <c r="L45" s="53"/>
+      <c r="M45" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="4" t="s">
+      <c r="N45" s="53"/>
+      <c r="O45" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="6" t="s">
+      <c r="P45" s="53"/>
+      <c r="Q45" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="R45" s="5"/>
+      <c r="R45" s="53"/>
     </row>
     <row r="49" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23" t="s">
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="27" t="s">
+      <c r="I49" s="24"/>
+      <c r="J49" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="27"/>
+      <c r="K49" s="28"/>
       <c r="L49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27" t="s">
+      <c r="M49" s="27"/>
+      <c r="N49" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="27"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="17" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="17" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="17" t="s">
+      <c r="G50" s="47"/>
+      <c r="H50" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="17" t="s">
+      <c r="I50" s="47"/>
+      <c r="J50" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="28" t="s">
+      <c r="K50" s="47"/>
+      <c r="L50" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="30" t="s">
+      <c r="M50" s="67"/>
+      <c r="N50" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="18"/>
+      <c r="O50" s="47"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="17" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="21" t="s">
+      <c r="M51" s="47"/>
+      <c r="N51" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="20"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="20"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="20"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="50"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="5"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="53"/>
     </row>
     <row r="58" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23" t="s">
+      <c r="H58" s="24"/>
+      <c r="I58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23" t="s">
+      <c r="J58" s="24"/>
+      <c r="K58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="27" t="s">
+      <c r="L58" s="24"/>
+      <c r="M58" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="27"/>
+      <c r="N58" s="28"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="16" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="17" t="s">
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="17" t="s">
+      <c r="H59" s="47"/>
+      <c r="I59" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="17" t="s">
+      <c r="J59" s="47"/>
+      <c r="K59" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="17" t="s">
+      <c r="L59" s="47"/>
+      <c r="M59" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="18"/>
+      <c r="N59" s="47"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="20"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="50"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="20"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="50"/>
     </row>
     <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="5"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="53"/>
+    </row>
+    <row r="66" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="24"/>
+      <c r="M66" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="28"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" s="47"/>
+      <c r="I67" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67" s="47"/>
+      <c r="K67" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="47"/>
+      <c r="M67" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="47"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="50"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="50"/>
+      <c r="I69" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="J69" s="50"/>
+      <c r="K69" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="50"/>
+      <c r="M69" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="50"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J70" s="53"/>
+      <c r="K70" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="53"/>
+      <c r="M70" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="258">
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
+  <mergeCells count="278">
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="A67:C70"/>
+    <mergeCell ref="D67:F70"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="M67:N68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A59:C62"/>
+    <mergeCell ref="D59:F62"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:C54"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:C45"/>
+    <mergeCell ref="D36:F45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A25:C32"/>
+    <mergeCell ref="D25:F32"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -2603,229 +2976,20 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A25:C32"/>
-    <mergeCell ref="D25:F32"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:C45"/>
-    <mergeCell ref="D36:F45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="A50:C54"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="A59:C62"/>
-    <mergeCell ref="D59:F62"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2835,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B83F7-7BF4-4F3C-A306-3B598CBBCFCA}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43507AF8-B3C2-4927-A592-E7153B511EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ABE1A7-6678-4E2C-B145-C6AD95FE0389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
   </bookViews>
   <sheets>
-    <sheet name="planning" sheetId="1" r:id="rId1"/>
+    <sheet name="planning and status" sheetId="1" r:id="rId1"/>
     <sheet name="estimation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="135">
   <si>
     <t>Project Name</t>
   </si>
@@ -405,6 +405,66 @@
   </si>
   <si>
     <t>111H</t>
+  </si>
+  <si>
+    <t>WP_6</t>
+  </si>
+  <si>
+    <t>PM Tasks</t>
+  </si>
+  <si>
+    <t>PM_TK_01</t>
+  </si>
+  <si>
+    <t>Release planing</t>
+  </si>
+  <si>
+    <t>Creating  backlig</t>
+  </si>
+  <si>
+    <t>Assigniing tasks</t>
+  </si>
+  <si>
+    <t>PM_TK_02</t>
+  </si>
+  <si>
+    <t>PM_TK_03</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>project status report</t>
+  </si>
+  <si>
+    <t>PM_TK_04</t>
+  </si>
+  <si>
+    <t>12H</t>
+  </si>
+  <si>
+    <t>10H</t>
+  </si>
+  <si>
+    <t>7H</t>
+  </si>
+  <si>
+    <t>77H</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>61H</t>
   </si>
 </sst>
 </file>
@@ -492,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,8 +589,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -683,13 +767,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,6 +806,57 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,190 +866,168 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,163 +1366,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228092DC-AB60-494E-96BB-65EF9987450B}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="I1" s="57" t="s">
+      <c r="D1" s="68"/>
+      <c r="I1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="I3" s="60">
+      <c r="I3" s="55">
         <v>45995</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
       <c r="M3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="54"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
-    </row>
-    <row r="12" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+    </row>
+    <row r="12" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="26"/>
       <c r="G12" s="25" t="s">
         <v>19</v>
@@ -1407,277 +1548,317 @@
         <v>23</v>
       </c>
       <c r="P12" s="26"/>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="R12" s="5"/>
+      <c r="S12" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17" t="s">
+      <c r="N13" s="17"/>
+      <c r="O13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="30" t="s">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="19" t="s">
+      <c r="R13" s="17"/>
+      <c r="S13" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="19"/>
+      <c r="M14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="19" t="s">
+      <c r="N14" s="19"/>
+      <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21" t="s">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="19" t="s">
+      <c r="R14" s="19"/>
+      <c r="S14" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" s="82"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="19" t="s">
+      <c r="L15" s="19"/>
+      <c r="M15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19" t="s">
+      <c r="N15" s="19"/>
+      <c r="O15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21" t="s">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="20"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="19" t="s">
+      <c r="R15" s="19"/>
+      <c r="S15" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" s="82"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19" t="s">
+      <c r="L16" s="18"/>
+      <c r="M16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19" t="s">
+      <c r="N16" s="18"/>
+      <c r="O16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="21" t="s">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="20"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="19" t="s">
+      <c r="R16" s="19"/>
+      <c r="S16" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" s="82"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="19" t="s">
+      <c r="L17" s="19"/>
+      <c r="M17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="19" t="s">
+      <c r="N17" s="19"/>
+      <c r="O17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21" t="s">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="19" t="s">
+      <c r="R17" s="19"/>
+      <c r="S17" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17" s="82"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="19" t="s">
+      <c r="J18" s="19"/>
+      <c r="K18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="19" t="s">
+      <c r="L18" s="19"/>
+      <c r="M18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="19" t="s">
+      <c r="N18" s="19"/>
+      <c r="O18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21" t="s">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="20"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="19" t="s">
+      <c r="R18" s="19"/>
+      <c r="S18" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T18" s="82"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="19" t="s">
+      <c r="L19" s="19"/>
+      <c r="M19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="19" t="s">
+      <c r="N19" s="19"/>
+      <c r="O19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="19" t="s">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="20"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="4" t="s">
+      <c r="R19" s="19"/>
+      <c r="S19" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="82"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="22"/>
+      <c r="K20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="22"/>
+      <c r="M20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4" t="s">
+      <c r="N20" s="22"/>
+      <c r="O20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6" t="s">
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="23" t="s">
+      <c r="R20" s="22"/>
+      <c r="S20" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="T20" s="83"/>
+    </row>
+    <row r="24" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="25" t="s">
         <v>18</v>
       </c>
@@ -1703,277 +1884,317 @@
         <v>23</v>
       </c>
       <c r="P24" s="26"/>
-      <c r="Q24" s="27" t="s">
+      <c r="Q24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="27"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="R24" s="5"/>
+      <c r="S24" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T24" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="17" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17" t="s">
+      <c r="J25" s="17"/>
+      <c r="K25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="17" t="s">
+      <c r="L25" s="17"/>
+      <c r="M25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="17" t="s">
+      <c r="N25" s="17"/>
+      <c r="O25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="30" t="s">
+      <c r="P25" s="17"/>
+      <c r="Q25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="18"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="19" t="s">
+      <c r="R25" s="17"/>
+      <c r="S25" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T25" s="81">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="19"/>
+      <c r="I26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19" t="s">
+      <c r="J26" s="19"/>
+      <c r="K26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19" t="s">
+      <c r="L26" s="19"/>
+      <c r="M26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="19" t="s">
+      <c r="N26" s="19"/>
+      <c r="O26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21" t="s">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="20"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="19" t="s">
+      <c r="R26" s="19"/>
+      <c r="S26" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" s="82"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19" t="s">
+      <c r="J27" s="19"/>
+      <c r="K27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19" t="s">
+      <c r="L27" s="19"/>
+      <c r="M27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19" t="s">
+      <c r="N27" s="19"/>
+      <c r="O27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21" t="s">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="19" t="s">
+      <c r="R27" s="19"/>
+      <c r="S27" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T27" s="82"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="19" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="19" t="s">
+      <c r="N28" s="19"/>
+      <c r="O28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="21" t="s">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="20"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="19" t="s">
+      <c r="R28" s="19"/>
+      <c r="S28" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T28" s="82"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="19" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19" t="s">
+      <c r="J29" s="19"/>
+      <c r="K29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="19" t="s">
+      <c r="L29" s="19"/>
+      <c r="M29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="19" t="s">
+      <c r="N29" s="19"/>
+      <c r="O29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21" t="s">
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="20"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="19" t="s">
+      <c r="R29" s="19"/>
+      <c r="S29" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T29" s="82"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19" t="s">
+      <c r="H30" s="19"/>
+      <c r="I30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19" t="s">
+      <c r="J30" s="19"/>
+      <c r="K30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="19" t="s">
+      <c r="L30" s="19"/>
+      <c r="M30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="19" t="s">
+      <c r="N30" s="19"/>
+      <c r="O30" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="21" t="s">
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="20"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="19" t="s">
+      <c r="R30" s="19"/>
+      <c r="S30" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" s="82"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="19" t="s">
+      <c r="J31" s="19"/>
+      <c r="K31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="19" t="s">
+      <c r="L31" s="19"/>
+      <c r="M31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="19" t="s">
+      <c r="N31" s="19"/>
+      <c r="O31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="19" t="s">
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="20"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="4" t="s">
+      <c r="R31" s="19"/>
+      <c r="S31" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T31" s="82"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="22"/>
+      <c r="M32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4" t="s">
+      <c r="N32" s="22"/>
+      <c r="O32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="6" t="s">
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="5"/>
-    </row>
-    <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
+      <c r="R32" s="22"/>
+      <c r="S32" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="T32" s="83"/>
+    </row>
+    <row r="35" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
@@ -1999,575 +2220,844 @@
         <v>23</v>
       </c>
       <c r="P35" s="26"/>
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="27"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="R35" s="5"/>
+      <c r="S35" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T35" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="16" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="17" t="s">
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17" t="s">
+      <c r="H36" s="17"/>
+      <c r="I36" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17" t="s">
+      <c r="J36" s="17"/>
+      <c r="K36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="17" t="s">
+      <c r="L36" s="17"/>
+      <c r="M36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="17" t="s">
+      <c r="N36" s="17"/>
+      <c r="O36" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="30" t="s">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="19" t="s">
+      <c r="R36" s="17"/>
+      <c r="S36" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T36" s="81">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="31" t="s">
+      <c r="H37" s="19"/>
+      <c r="I37" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="32"/>
-      <c r="K37" s="19" t="s">
+      <c r="J37" s="31"/>
+      <c r="K37" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="19" t="s">
+      <c r="L37" s="19"/>
+      <c r="M37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="19" t="s">
+      <c r="N37" s="19"/>
+      <c r="O37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21" t="s">
+      <c r="P37" s="19"/>
+      <c r="Q37" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R37" s="20"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="19" t="s">
+      <c r="R37" s="19"/>
+      <c r="S37" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37" s="82"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="19" t="s">
+      <c r="H38" s="19"/>
+      <c r="I38" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="19" t="s">
+      <c r="J38" s="19"/>
+      <c r="K38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="19" t="s">
+      <c r="L38" s="19"/>
+      <c r="M38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="19" t="s">
+      <c r="N38" s="19"/>
+      <c r="O38" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21" t="s">
+      <c r="P38" s="19"/>
+      <c r="Q38" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="20"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="19" t="s">
+      <c r="R38" s="19"/>
+      <c r="S38" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38" s="82"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="19" t="s">
+      <c r="H39" s="19"/>
+      <c r="I39" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="19" t="s">
+      <c r="J39" s="19"/>
+      <c r="K39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19" t="s">
+      <c r="L39" s="19"/>
+      <c r="M39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="19" t="s">
+      <c r="N39" s="19"/>
+      <c r="O39" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21" t="s">
+      <c r="P39" s="19"/>
+      <c r="Q39" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="20"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="19" t="s">
+      <c r="R39" s="19"/>
+      <c r="S39" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39" s="82"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="19" t="s">
+      <c r="H40" s="19"/>
+      <c r="I40" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="19" t="s">
+      <c r="J40" s="19"/>
+      <c r="K40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="19" t="s">
+      <c r="L40" s="19"/>
+      <c r="M40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="19" t="s">
+      <c r="N40" s="19"/>
+      <c r="O40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21" t="s">
+      <c r="P40" s="19"/>
+      <c r="Q40" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="R40" s="20"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="19" t="s">
+      <c r="R40" s="19"/>
+      <c r="S40" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T40" s="82"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="19" t="s">
+      <c r="H41" s="19"/>
+      <c r="I41" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="19" t="s">
+      <c r="J41" s="19"/>
+      <c r="K41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="20"/>
-      <c r="M41" s="19" t="s">
+      <c r="L41" s="19"/>
+      <c r="M41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="19" t="s">
+      <c r="N41" s="19"/>
+      <c r="O41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21" t="s">
+      <c r="P41" s="19"/>
+      <c r="Q41" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="20"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="19" t="s">
+      <c r="R41" s="19"/>
+      <c r="S41" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41" s="82"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="19" t="s">
+      <c r="H42" s="19"/>
+      <c r="I42" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="19" t="s">
+      <c r="J42" s="19"/>
+      <c r="K42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="19" t="s">
+      <c r="L42" s="19"/>
+      <c r="M42" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="19" t="s">
+      <c r="N42" s="19"/>
+      <c r="O42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="19" t="s">
+      <c r="P42" s="19"/>
+      <c r="Q42" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="20"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="19" t="s">
+      <c r="R42" s="19"/>
+      <c r="S42" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" s="82"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="19" t="s">
+      <c r="H43" s="19"/>
+      <c r="I43" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="19" t="s">
+      <c r="J43" s="19"/>
+      <c r="K43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="19" t="s">
+      <c r="L43" s="19"/>
+      <c r="M43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="19" t="s">
+      <c r="N43" s="19"/>
+      <c r="O43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="19" t="s">
+      <c r="P43" s="19"/>
+      <c r="Q43" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="20"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="19" t="s">
+      <c r="R43" s="19"/>
+      <c r="S43" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T43" s="82"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="19" t="s">
+      <c r="H44" s="19"/>
+      <c r="I44" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="19" t="s">
+      <c r="J44" s="19"/>
+      <c r="K44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19" t="s">
+      <c r="L44" s="19"/>
+      <c r="M44" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="19" t="s">
+      <c r="N44" s="19"/>
+      <c r="O44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="19" t="s">
+      <c r="P44" s="19"/>
+      <c r="Q44" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="20"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="4" t="s">
+      <c r="R44" s="19"/>
+      <c r="S44" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T44" s="82"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="22"/>
+      <c r="I45" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="22"/>
+      <c r="K45" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="4" t="s">
+      <c r="L45" s="22"/>
+      <c r="M45" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="4" t="s">
+      <c r="N45" s="22"/>
+      <c r="O45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="6" t="s">
+      <c r="P45" s="22"/>
+      <c r="Q45" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="49" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="23" t="s">
+      <c r="R45" s="22"/>
+      <c r="S45" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45" s="83"/>
+    </row>
+    <row r="49" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="27" t="s">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="27"/>
+      <c r="K49" s="5"/>
       <c r="L49" s="25" t="s">
         <v>23</v>
       </c>
       <c r="M49" s="26"/>
-      <c r="N49" s="27" t="s">
+      <c r="N49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="27"/>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="O49" s="5"/>
+      <c r="P49" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="17" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="17" t="s">
+      <c r="E50" s="17"/>
+      <c r="F50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="17" t="s">
+      <c r="G50" s="17"/>
+      <c r="H50" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="17" t="s">
+      <c r="I50" s="17"/>
+      <c r="J50" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="28" t="s">
+      <c r="K50" s="17"/>
+      <c r="L50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="30" t="s">
+      <c r="M50" s="28"/>
+      <c r="N50" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="18"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="17" t="s">
+      <c r="O50" s="17"/>
+      <c r="P50" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q50" s="81">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="21" t="s">
+      <c r="M51" s="17"/>
+      <c r="N51" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="20"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="20"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="20"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="5"/>
-    </row>
-    <row r="58" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="23" t="s">
+      <c r="O51" s="19"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="84"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="84"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="84"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="85"/>
+    </row>
+    <row r="58" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23" t="s">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23" t="s">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="27" t="s">
+      <c r="L58" s="4"/>
+      <c r="M58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="N58" s="5"/>
+      <c r="O58" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P58" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="16" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="17" t="s">
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="17" t="s">
+      <c r="H59" s="17"/>
+      <c r="I59" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="17" t="s">
+      <c r="J59" s="17"/>
+      <c r="K59" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="17" t="s">
+      <c r="L59" s="17"/>
+      <c r="M59" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="18"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="20"/>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="20"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="5"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="P59" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="82"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="82"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="83"/>
+    </row>
+    <row r="66" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P66" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67" s="17"/>
+      <c r="K67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="17"/>
+      <c r="O67" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="P68" s="82"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J69" s="19"/>
+      <c r="K69" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="19"/>
+      <c r="M69" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="19"/>
+      <c r="O69" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="P69" s="82"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J70" s="19"/>
+      <c r="K70" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="19"/>
+      <c r="M70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="19"/>
+      <c r="O70" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="P70" s="82"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J71" s="22"/>
+      <c r="K71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="22"/>
+      <c r="M71" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="22"/>
+      <c r="O71" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="P71" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="258">
+  <mergeCells count="289">
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P62"/>
+    <mergeCell ref="T36:T45"/>
+    <mergeCell ref="Q50:Q54"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="T13:T20"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="P67:P71"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2579,6 +3069,9 @@
     <mergeCell ref="I5:P6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -2622,6 +3115,11 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -2740,11 +3238,6 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="A50:C54"/>
@@ -2761,6 +3254,13 @@
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:G53"/>
@@ -2773,22 +3273,11 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="G58:H58"/>
@@ -2798,8 +3287,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="H49:I49"/>
@@ -2812,6 +3299,9 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:G54"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="K62:L62"/>
@@ -2826,6 +3316,26 @@
     <mergeCell ref="I61:J61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="A67:C71"/>
+    <mergeCell ref="D67:F71"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="M67:N68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2835,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B83F7-7BF4-4F3C-A306-3B598CBBCFCA}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,7 +3381,9 @@
       <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2883,7 +3395,9 @@
       <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2895,7 +3409,9 @@
       <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2907,7 +3423,9 @@
       <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2919,7 +3437,9 @@
       <c r="C6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2929,9 +3449,11 @@
         <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2941,10 +3463,10 @@
         <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ABE1A7-6678-4E2C-B145-C6AD95FE0389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDBA64-E1C6-490D-9CBB-F33AD5403757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="138">
   <si>
     <t>Project Name</t>
   </si>
@@ -465,6 +465,15 @@
   </si>
   <si>
     <t>61H</t>
+  </si>
+  <si>
+    <t>Total Task</t>
+  </si>
+  <si>
+    <t>22Task-  65.7%</t>
+  </si>
+  <si>
+    <t>10Task-  31.25%</t>
   </si>
 </sst>
 </file>
@@ -797,7 +806,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,201 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1008,13 +822,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +843,205 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1366,15 +1379,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228092DC-AB60-494E-96BB-65EF9987450B}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" customWidth="1"/>
@@ -1384,1694 +1399,1918 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="I1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="I1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="I2" s="52" t="s">
+      <c r="D2" s="32"/>
+      <c r="I2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="52" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="I3" s="55">
+      <c r="D3" s="32"/>
+      <c r="I3" s="29">
         <v>45995</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="24" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="I4" s="52" t="s">
+      <c r="D4" s="32"/>
+      <c r="I4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="I5" s="64" t="s">
+      <c r="D5" s="32"/>
+      <c r="I5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
+      <c r="D6" s="32"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="I7" s="52" t="s">
+      <c r="D7" s="32"/>
+      <c r="I7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="65" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="12" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="47"/>
+      <c r="K12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="47"/>
+      <c r="M12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="25" t="s">
+      <c r="N12" s="47"/>
+      <c r="O12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="71" t="s">
+      <c r="R12" s="48"/>
+      <c r="S12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T12" s="80" t="s">
+      <c r="T12" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="67"/>
+      <c r="I13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="67"/>
+      <c r="M13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="16" t="s">
+      <c r="N13" s="67"/>
+      <c r="O13" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="29" t="s">
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="72" t="s">
+      <c r="R13" s="67"/>
+      <c r="S13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T13" s="81">
+      <c r="T13" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="18" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="18" t="s">
+      <c r="J14" s="22"/>
+      <c r="K14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18" t="s">
+      <c r="L14" s="22"/>
+      <c r="M14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18" t="s">
+      <c r="N14" s="22"/>
+      <c r="O14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20" t="s">
+      <c r="P14" s="22"/>
+      <c r="Q14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="72" t="s">
+      <c r="R14" s="22"/>
+      <c r="S14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="82"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="18" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18" t="s">
+      <c r="N15" s="22"/>
+      <c r="O15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20" t="s">
+      <c r="P15" s="22"/>
+      <c r="Q15" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="72" t="s">
+      <c r="R15" s="22"/>
+      <c r="S15" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="82"/>
+      <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="18" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="21"/>
+      <c r="M16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="20" t="s">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="72" t="s">
+      <c r="R16" s="22"/>
+      <c r="S16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="82"/>
+      <c r="T16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="18" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="22"/>
+      <c r="M17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18" t="s">
+      <c r="N17" s="22"/>
+      <c r="O17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20" t="s">
+      <c r="P17" s="22"/>
+      <c r="Q17" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="72" t="s">
+      <c r="R17" s="22"/>
+      <c r="S17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="82"/>
+      <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="18" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="22"/>
+      <c r="K18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="22"/>
+      <c r="M18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18" t="s">
+      <c r="N18" s="22"/>
+      <c r="O18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20" t="s">
+      <c r="P18" s="22"/>
+      <c r="Q18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="72" t="s">
+      <c r="R18" s="22"/>
+      <c r="S18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="82"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="18" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="22"/>
+      <c r="K19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="22"/>
+      <c r="M19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="18" t="s">
+      <c r="N19" s="22"/>
+      <c r="O19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="18" t="s">
+      <c r="P19" s="22"/>
+      <c r="Q19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="72" t="s">
+      <c r="R19" s="22"/>
+      <c r="S19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="82"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="21" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="71"/>
+      <c r="K20" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="21" t="s">
+      <c r="L20" s="71"/>
+      <c r="M20" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21" t="s">
+      <c r="N20" s="71"/>
+      <c r="O20" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23" t="s">
+      <c r="P20" s="71"/>
+      <c r="Q20" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="73" t="s">
+      <c r="R20" s="71"/>
+      <c r="S20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="83"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="24" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25" t="s">
+      <c r="H24" s="45"/>
+      <c r="I24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25" t="s">
+      <c r="J24" s="45"/>
+      <c r="K24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25" t="s">
+      <c r="L24" s="45"/>
+      <c r="M24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25" t="s">
+      <c r="N24" s="45"/>
+      <c r="O24" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="5" t="s">
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="71" t="s">
+      <c r="R24" s="48"/>
+      <c r="S24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T24" s="80" t="s">
+      <c r="T24" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="16" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="67"/>
+      <c r="I25" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="16" t="s">
+      <c r="J25" s="67"/>
+      <c r="K25" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16" t="s">
+      <c r="L25" s="67"/>
+      <c r="M25" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="16" t="s">
+      <c r="N25" s="67"/>
+      <c r="O25" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="29" t="s">
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="74" t="s">
+      <c r="R25" s="67"/>
+      <c r="S25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T25" s="81">
+      <c r="T25" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="18" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="18" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="18" t="s">
+      <c r="J26" s="22"/>
+      <c r="K26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="18" t="s">
+      <c r="L26" s="22"/>
+      <c r="M26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="18" t="s">
+      <c r="N26" s="22"/>
+      <c r="O26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20" t="s">
+      <c r="P26" s="22"/>
+      <c r="Q26" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="19"/>
-      <c r="S26" s="74" t="s">
+      <c r="R26" s="22"/>
+      <c r="S26" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T26" s="82"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="18" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="18" t="s">
+      <c r="L27" s="22"/>
+      <c r="M27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="18" t="s">
+      <c r="N27" s="22"/>
+      <c r="O27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20" t="s">
+      <c r="P27" s="22"/>
+      <c r="Q27" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="19"/>
-      <c r="S27" s="74" t="s">
+      <c r="R27" s="22"/>
+      <c r="S27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="82"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="18" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="18" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="18" t="s">
+      <c r="J28" s="22"/>
+      <c r="K28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="18" t="s">
+      <c r="L28" s="22"/>
+      <c r="M28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="18" t="s">
+      <c r="N28" s="22"/>
+      <c r="O28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="20" t="s">
+      <c r="P28" s="22"/>
+      <c r="Q28" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="74" t="s">
+      <c r="R28" s="22"/>
+      <c r="S28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T28" s="82"/>
+      <c r="T28" s="17"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="18" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="18" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="18" t="s">
+      <c r="J29" s="22"/>
+      <c r="K29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="18" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="18" t="s">
+      <c r="N29" s="22"/>
+      <c r="O29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="20" t="s">
+      <c r="P29" s="22"/>
+      <c r="Q29" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="74" t="s">
+      <c r="R29" s="22"/>
+      <c r="S29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T29" s="82"/>
+      <c r="T29" s="17"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="18" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="18" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="18" t="s">
+      <c r="J30" s="22"/>
+      <c r="K30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="18" t="s">
+      <c r="L30" s="22"/>
+      <c r="M30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="18" t="s">
+      <c r="N30" s="22"/>
+      <c r="O30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="20" t="s">
+      <c r="P30" s="22"/>
+      <c r="Q30" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="19"/>
-      <c r="S30" s="74" t="s">
+      <c r="R30" s="22"/>
+      <c r="S30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T30" s="82"/>
+      <c r="T30" s="17"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="18" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="18" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="18" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="18" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="18" t="s">
+      <c r="N31" s="22"/>
+      <c r="O31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="18" t="s">
+      <c r="P31" s="22"/>
+      <c r="Q31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="74" t="s">
+      <c r="R31" s="22"/>
+      <c r="S31" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="82"/>
+      <c r="T31" s="17"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="21" t="s">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21" t="s">
+      <c r="H32" s="71"/>
+      <c r="I32" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="21" t="s">
+      <c r="J32" s="71"/>
+      <c r="K32" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="21" t="s">
+      <c r="L32" s="71"/>
+      <c r="M32" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="21" t="s">
+      <c r="N32" s="71"/>
+      <c r="O32" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23" t="s">
+      <c r="P32" s="71"/>
+      <c r="Q32" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="22"/>
-      <c r="S32" s="75" t="s">
+      <c r="R32" s="71"/>
+      <c r="S32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="T32" s="83"/>
+      <c r="T32" s="18"/>
     </row>
     <row r="35" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="25" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25" t="s">
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25" t="s">
+      <c r="H35" s="45"/>
+      <c r="I35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25" t="s">
+      <c r="J35" s="45"/>
+      <c r="K35" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25" t="s">
+      <c r="L35" s="45"/>
+      <c r="M35" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25" t="s">
+      <c r="N35" s="45"/>
+      <c r="O35" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="5" t="s">
+      <c r="P35" s="47"/>
+      <c r="Q35" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="71" t="s">
+      <c r="R35" s="48"/>
+      <c r="S35" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T35" s="80" t="s">
+      <c r="T35" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="15" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="16" t="s">
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="67"/>
+      <c r="I36" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="16" t="s">
+      <c r="J36" s="67"/>
+      <c r="K36" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="16" t="s">
+      <c r="L36" s="67"/>
+      <c r="M36" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="16" t="s">
+      <c r="N36" s="67"/>
+      <c r="O36" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="29" t="s">
+      <c r="P36" s="67"/>
+      <c r="Q36" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="17"/>
-      <c r="S36" s="78" t="s">
+      <c r="R36" s="67"/>
+      <c r="S36" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T36" s="81">
+      <c r="T36" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="18" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="30" t="s">
+      <c r="H37" s="22"/>
+      <c r="I37" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="18" t="s">
+      <c r="J37" s="74"/>
+      <c r="K37" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="18" t="s">
+      <c r="L37" s="22"/>
+      <c r="M37" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="18" t="s">
+      <c r="N37" s="22"/>
+      <c r="O37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="20" t="s">
+      <c r="P37" s="22"/>
+      <c r="Q37" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="78" t="s">
+      <c r="R37" s="22"/>
+      <c r="S37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T37" s="82"/>
+      <c r="T37" s="17"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="18" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="18" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="18" t="s">
+      <c r="J38" s="22"/>
+      <c r="K38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="19"/>
-      <c r="M38" s="18" t="s">
+      <c r="L38" s="22"/>
+      <c r="M38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="18" t="s">
+      <c r="N38" s="22"/>
+      <c r="O38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="20" t="s">
+      <c r="P38" s="22"/>
+      <c r="Q38" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="19"/>
-      <c r="S38" s="78" t="s">
+      <c r="R38" s="22"/>
+      <c r="S38" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T38" s="82"/>
+      <c r="T38" s="17"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="18" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="18" t="s">
+      <c r="H39" s="22"/>
+      <c r="I39" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="18" t="s">
+      <c r="J39" s="22"/>
+      <c r="K39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="18" t="s">
+      <c r="L39" s="22"/>
+      <c r="M39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="18" t="s">
+      <c r="N39" s="22"/>
+      <c r="O39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="20" t="s">
+      <c r="P39" s="22"/>
+      <c r="Q39" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="78" t="s">
+      <c r="R39" s="22"/>
+      <c r="S39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T39" s="82"/>
+      <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="18" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="18" t="s">
+      <c r="H40" s="22"/>
+      <c r="I40" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="18" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="18" t="s">
+      <c r="L40" s="22"/>
+      <c r="M40" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="18" t="s">
+      <c r="N40" s="22"/>
+      <c r="O40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="20" t="s">
+      <c r="P40" s="22"/>
+      <c r="Q40" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="R40" s="19"/>
-      <c r="S40" s="78" t="s">
+      <c r="R40" s="22"/>
+      <c r="S40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T40" s="82"/>
+      <c r="T40" s="17"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="18" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="18" t="s">
+      <c r="H41" s="22"/>
+      <c r="I41" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="18" t="s">
+      <c r="J41" s="22"/>
+      <c r="K41" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="18" t="s">
+      <c r="L41" s="22"/>
+      <c r="M41" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="18" t="s">
+      <c r="N41" s="22"/>
+      <c r="O41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="20" t="s">
+      <c r="P41" s="22"/>
+      <c r="Q41" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="19"/>
-      <c r="S41" s="78" t="s">
+      <c r="R41" s="22"/>
+      <c r="S41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T41" s="82"/>
+      <c r="T41" s="17"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="18" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="18" t="s">
+      <c r="H42" s="22"/>
+      <c r="I42" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="18" t="s">
+      <c r="J42" s="22"/>
+      <c r="K42" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="19"/>
-      <c r="M42" s="18" t="s">
+      <c r="L42" s="22"/>
+      <c r="M42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="19"/>
-      <c r="O42" s="18" t="s">
+      <c r="N42" s="22"/>
+      <c r="O42" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="18" t="s">
+      <c r="P42" s="22"/>
+      <c r="Q42" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="19"/>
-      <c r="S42" s="78" t="s">
+      <c r="R42" s="22"/>
+      <c r="S42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T42" s="82"/>
+      <c r="T42" s="17"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="18" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="18" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="18" t="s">
+      <c r="J43" s="22"/>
+      <c r="K43" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="18" t="s">
+      <c r="L43" s="22"/>
+      <c r="M43" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="19"/>
-      <c r="O43" s="18" t="s">
+      <c r="N43" s="22"/>
+      <c r="O43" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="18" t="s">
+      <c r="P43" s="22"/>
+      <c r="Q43" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="19"/>
-      <c r="S43" s="78" t="s">
+      <c r="R43" s="22"/>
+      <c r="S43" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T43" s="82"/>
+      <c r="T43" s="17"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="18" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="18" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="18" t="s">
+      <c r="J44" s="22"/>
+      <c r="K44" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="18" t="s">
+      <c r="L44" s="22"/>
+      <c r="M44" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="19"/>
-      <c r="O44" s="18" t="s">
+      <c r="N44" s="22"/>
+      <c r="O44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="18" t="s">
+      <c r="P44" s="22"/>
+      <c r="Q44" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="19"/>
-      <c r="S44" s="74" t="s">
+      <c r="R44" s="22"/>
+      <c r="S44" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T44" s="82"/>
+      <c r="T44" s="17"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="21" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="21" t="s">
+      <c r="H45" s="71"/>
+      <c r="I45" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="21" t="s">
+      <c r="J45" s="71"/>
+      <c r="K45" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="21" t="s">
+      <c r="L45" s="71"/>
+      <c r="M45" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="22"/>
-      <c r="O45" s="21" t="s">
+      <c r="N45" s="71"/>
+      <c r="O45" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23" t="s">
+      <c r="P45" s="71"/>
+      <c r="Q45" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="R45" s="22"/>
-      <c r="S45" s="79" t="s">
+      <c r="R45" s="71"/>
+      <c r="S45" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="T45" s="83"/>
+      <c r="T45" s="18"/>
     </row>
     <row r="49" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
+      <c r="E49" s="44"/>
+      <c r="F49" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="5" t="s">
+      <c r="I49" s="44"/>
+      <c r="J49" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="25" t="s">
+      <c r="K49" s="48"/>
+      <c r="L49" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="5" t="s">
+      <c r="M49" s="47"/>
+      <c r="N49" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="80" t="s">
+      <c r="O49" s="48"/>
+      <c r="P49" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Q49" s="80" t="s">
+      <c r="Q49" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="16" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16" t="s">
+      <c r="E50" s="67"/>
+      <c r="F50" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="67"/>
+      <c r="H50" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="16" t="s">
+      <c r="I50" s="67"/>
+      <c r="J50" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="27" t="s">
+      <c r="K50" s="67"/>
+      <c r="L50" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29" t="s">
+      <c r="M50" s="85"/>
+      <c r="N50" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="17"/>
-      <c r="P50" s="74" t="s">
+      <c r="O50" s="67"/>
+      <c r="P50" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Q50" s="81">
+      <c r="Q50" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="16" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="17"/>
-      <c r="N51" s="20" t="s">
+      <c r="M51" s="67"/>
+      <c r="N51" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="84"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="84"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="84"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="85"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="20"/>
     </row>
     <row r="58" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4" t="s">
+      <c r="H58" s="44"/>
+      <c r="I58" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="44"/>
+      <c r="K58" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="5" t="s">
+      <c r="L58" s="44"/>
+      <c r="M58" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="80" t="s">
+      <c r="N58" s="48"/>
+      <c r="O58" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="P58" s="80" t="s">
+      <c r="P58" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="15" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="16" t="s">
+      <c r="E59" s="50"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="67"/>
+      <c r="I59" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="16" t="s">
+      <c r="J59" s="67"/>
+      <c r="K59" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="16" t="s">
+      <c r="L59" s="67"/>
+      <c r="M59" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="76" t="s">
+      <c r="N59" s="67"/>
+      <c r="O59" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="P59" s="81">
+      <c r="P59" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="82"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="82"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="83"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="66" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4" t="s">
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4" t="s">
+      <c r="H66" s="44"/>
+      <c r="I66" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="44"/>
+      <c r="K66" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="5" t="s">
+      <c r="L66" s="44"/>
+      <c r="M66" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="5"/>
-      <c r="O66" s="77" t="s">
+      <c r="N66" s="48"/>
+      <c r="O66" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P66" s="80" t="s">
+      <c r="P66" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="15" t="s">
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="16" t="s">
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="16" t="s">
+      <c r="H67" s="67"/>
+      <c r="I67" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="J67" s="17"/>
-      <c r="K67" s="16" t="s">
+      <c r="J67" s="67"/>
+      <c r="K67" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="16" t="s">
+      <c r="L67" s="67"/>
+      <c r="M67" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="78" t="s">
+      <c r="N67" s="67"/>
+      <c r="O67" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P67" s="81">
+      <c r="P67" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="78" t="s">
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P68" s="82"/>
+      <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="18" t="s">
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="18" t="s">
+      <c r="H69" s="22"/>
+      <c r="I69" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="J69" s="19"/>
-      <c r="K69" s="18" t="s">
+      <c r="J69" s="22"/>
+      <c r="K69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L69" s="19"/>
-      <c r="M69" s="20" t="s">
+      <c r="L69" s="22"/>
+      <c r="M69" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="19"/>
-      <c r="O69" s="78" t="s">
+      <c r="N69" s="22"/>
+      <c r="O69" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P69" s="82"/>
+      <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="18" t="s">
+      <c r="A70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="18" t="s">
+      <c r="H70" s="22"/>
+      <c r="I70" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J70" s="19"/>
-      <c r="K70" s="18" t="s">
+      <c r="J70" s="22"/>
+      <c r="K70" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="19"/>
-      <c r="M70" s="18" t="s">
+      <c r="L70" s="22"/>
+      <c r="M70" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N70" s="19"/>
-      <c r="O70" s="78" t="s">
+      <c r="N70" s="22"/>
+      <c r="O70" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P70" s="82"/>
+      <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="21" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="21" t="s">
+      <c r="H71" s="71"/>
+      <c r="I71" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="J71" s="22"/>
-      <c r="K71" s="21" t="s">
+      <c r="J71" s="71"/>
+      <c r="K71" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="22"/>
-      <c r="M71" s="23" t="s">
+      <c r="L71" s="71"/>
+      <c r="M71" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="N71" s="22"/>
-      <c r="O71" s="79" t="s">
+      <c r="N71" s="71"/>
+      <c r="O71" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="P71" s="83"/>
+      <c r="P71" s="18"/>
+    </row>
+    <row r="79" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D79" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
+        <v>32</v>
+      </c>
+      <c r="E80" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="87" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="289">
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P62"/>
-    <mergeCell ref="T36:T45"/>
-    <mergeCell ref="Q50:Q54"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="T13:T20"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="P67:P71"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="A67:C71"/>
+    <mergeCell ref="D67:F71"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="M67:N68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A59:C62"/>
+    <mergeCell ref="D59:F62"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:C54"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:C45"/>
+    <mergeCell ref="D36:F45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A25:C32"/>
+    <mergeCell ref="D25:F32"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -3096,6 +3335,31 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P62"/>
+    <mergeCell ref="T36:T45"/>
+    <mergeCell ref="Q50:Q54"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="T13:T20"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="P67:P71"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
@@ -3109,233 +3373,6 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A25:C32"/>
-    <mergeCell ref="D25:F32"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:C45"/>
-    <mergeCell ref="D36:F45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="A50:C54"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="A59:C62"/>
-    <mergeCell ref="D59:F62"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="A67:C71"/>
-    <mergeCell ref="D67:F71"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:L68"/>
-    <mergeCell ref="M67:N68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDBA64-E1C6-490D-9CBB-F33AD5403757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE8DC2-E393-46F6-8DE2-CE79D7B196BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED436E22-465D-4F99-B1C5-DB84FB77D26C}"/>
   </bookViews>
   <sheets>
     <sheet name="planning and status" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
   <si>
     <t>Project Name</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>10Task-  31.25%</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -826,222 +829,222 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1379,194 +1382,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228092DC-AB60-494E-96BB-65EF9987450B}">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="I1" s="23" t="s">
+      <c r="D1" s="81"/>
+      <c r="I1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="I2" s="26" t="s">
+      <c r="D2" s="37"/>
+      <c r="I2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="26" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="32" t="s">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="I3" s="29">
+      <c r="D3" s="37"/>
+      <c r="I3" s="68">
         <v>45995</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="32" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="I4" s="26" t="s">
+      <c r="D4" s="37"/>
+      <c r="I4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="32" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="I5" s="39" t="s">
+      <c r="D5" s="37"/>
+      <c r="I5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="32" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="32" t="s">
+      <c r="D6" s="37"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="I7" s="26" t="s">
+      <c r="D7" s="37"/>
+      <c r="I7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="40" t="s">
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="12" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+    </row>
+    <row r="12" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="45" t="s">
+      <c r="J12" s="39"/>
+      <c r="K12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="45" t="s">
+      <c r="L12" s="39"/>
+      <c r="M12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="45" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48" t="s">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="48"/>
+      <c r="R12" s="18"/>
       <c r="S12" s="6" t="s">
         <v>123</v>
       </c>
@@ -1574,335 +1577,335 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="49" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="66" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="66" t="s">
+      <c r="J13" s="30"/>
+      <c r="K13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="66" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="67"/>
-      <c r="O13" s="66" t="s">
+      <c r="N13" s="30"/>
+      <c r="O13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68" t="s">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="67"/>
+      <c r="R13" s="30"/>
       <c r="S13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="83">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="21" t="s">
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="21" t="s">
+      <c r="L14" s="32"/>
+      <c r="M14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="21" t="s">
+      <c r="N14" s="32"/>
+      <c r="O14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="69" t="s">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="22"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="21" t="s">
+      <c r="T14" s="84"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="21" t="s">
+      <c r="L15" s="32"/>
+      <c r="M15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="21" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="69" t="s">
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="22"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="21" t="s">
+      <c r="T15" s="84"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21" t="s">
+      <c r="N16" s="31"/>
+      <c r="O16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="69" t="s">
+      <c r="P16" s="31"/>
+      <c r="Q16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="21" t="s">
+      <c r="T16" s="84"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="32"/>
+      <c r="K17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="21" t="s">
+      <c r="L17" s="32"/>
+      <c r="M17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21" t="s">
+      <c r="N17" s="32"/>
+      <c r="O17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="69" t="s">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="22"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="21" t="s">
+      <c r="T17" s="84"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="21" t="s">
+      <c r="L18" s="32"/>
+      <c r="M18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21" t="s">
+      <c r="N18" s="32"/>
+      <c r="O18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="69" t="s">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="17"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="21" t="s">
+      <c r="T18" s="84"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="32"/>
+      <c r="K19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="21" t="s">
+      <c r="L19" s="32"/>
+      <c r="M19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21" t="s">
+      <c r="N19" s="32"/>
+      <c r="O19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="21" t="s">
+      <c r="P19" s="32"/>
+      <c r="Q19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="22"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="72" t="s">
+      <c r="T19" s="84"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72" t="s">
+      <c r="L20" s="35"/>
+      <c r="M20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72" t="s">
+      <c r="N20" s="35"/>
+      <c r="O20" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="70" t="s">
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R20" s="71"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="18"/>
-    </row>
-    <row r="24" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="44" t="s">
+      <c r="T20" s="85"/>
+    </row>
+    <row r="24" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45" t="s">
+      <c r="H24" s="38"/>
+      <c r="I24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45" t="s">
+      <c r="J24" s="38"/>
+      <c r="K24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45" t="s">
+      <c r="L24" s="38"/>
+      <c r="M24" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45" t="s">
+      <c r="N24" s="38"/>
+      <c r="O24" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48" t="s">
+      <c r="P24" s="39"/>
+      <c r="Q24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="48"/>
+      <c r="R24" s="18"/>
       <c r="S24" s="6" t="s">
         <v>123</v>
       </c>
@@ -1910,335 +1913,335 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="49" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="66" t="s">
+      <c r="H25" s="30"/>
+      <c r="I25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="66" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="66" t="s">
+      <c r="L25" s="30"/>
+      <c r="M25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="66" t="s">
+      <c r="N25" s="30"/>
+      <c r="O25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68" t="s">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="67"/>
+      <c r="R25" s="30"/>
       <c r="S25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="83">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="21" t="s">
+    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21" t="s">
+      <c r="J26" s="32"/>
+      <c r="K26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="21" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="21" t="s">
+      <c r="N26" s="32"/>
+      <c r="O26" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="69" t="s">
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="22"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="21" t="s">
+      <c r="T26" s="84"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21" t="s">
+      <c r="H27" s="32"/>
+      <c r="I27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="21" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="21" t="s">
+      <c r="N27" s="32"/>
+      <c r="O27" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="69" t="s">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="22"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="17"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="21" t="s">
+      <c r="T27" s="84"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21" t="s">
+      <c r="H28" s="32"/>
+      <c r="I28" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21" t="s">
+      <c r="J28" s="32"/>
+      <c r="K28" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="21" t="s">
+      <c r="L28" s="32"/>
+      <c r="M28" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="22"/>
-      <c r="O28" s="21" t="s">
+      <c r="N28" s="32"/>
+      <c r="O28" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="69" t="s">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="22"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T28" s="17"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="21" t="s">
+      <c r="T28" s="84"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21" t="s">
+      <c r="H29" s="32"/>
+      <c r="I29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21" t="s">
+      <c r="L29" s="32"/>
+      <c r="M29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="22"/>
-      <c r="O29" s="21" t="s">
+      <c r="N29" s="32"/>
+      <c r="O29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="69" t="s">
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="22"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T29" s="17"/>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="21" t="s">
+      <c r="T29" s="84"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21" t="s">
+      <c r="H30" s="32"/>
+      <c r="I30" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="21" t="s">
+      <c r="J30" s="32"/>
+      <c r="K30" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="21" t="s">
+      <c r="L30" s="32"/>
+      <c r="M30" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="22"/>
-      <c r="O30" s="21" t="s">
+      <c r="N30" s="32"/>
+      <c r="O30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="69" t="s">
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="22"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T30" s="17"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="21" t="s">
+      <c r="T30" s="84"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="32"/>
+      <c r="I31" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="21" t="s">
+      <c r="J31" s="32"/>
+      <c r="K31" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="21" t="s">
+      <c r="L31" s="32"/>
+      <c r="M31" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="21" t="s">
+      <c r="N31" s="32"/>
+      <c r="O31" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="21" t="s">
+      <c r="P31" s="32"/>
+      <c r="Q31" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="22"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="17"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="72" t="s">
+      <c r="T31" s="84"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72" t="s">
+      <c r="H32" s="35"/>
+      <c r="I32" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="72" t="s">
+      <c r="L32" s="35"/>
+      <c r="M32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="71"/>
-      <c r="O32" s="72" t="s">
+      <c r="N32" s="35"/>
+      <c r="O32" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="70" t="s">
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="71"/>
+      <c r="R32" s="35"/>
       <c r="S32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="T32" s="18"/>
-    </row>
-    <row r="35" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="44" t="s">
+      <c r="T32" s="85"/>
+    </row>
+    <row r="35" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45" t="s">
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45" t="s">
+      <c r="H35" s="38"/>
+      <c r="I35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45" t="s">
+      <c r="J35" s="38"/>
+      <c r="K35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45" t="s">
+      <c r="L35" s="38"/>
+      <c r="M35" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45" t="s">
+      <c r="N35" s="38"/>
+      <c r="O35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="48" t="s">
+      <c r="P35" s="39"/>
+      <c r="Q35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="48"/>
+      <c r="R35" s="18"/>
       <c r="S35" s="6" t="s">
         <v>123</v>
       </c>
@@ -2246,402 +2249,402 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="75" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="66" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="66" t="s">
+      <c r="H36" s="30"/>
+      <c r="I36" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="66" t="s">
+      <c r="J36" s="30"/>
+      <c r="K36" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="67"/>
-      <c r="M36" s="66" t="s">
+      <c r="L36" s="30"/>
+      <c r="M36" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="67"/>
-      <c r="O36" s="66" t="s">
+      <c r="N36" s="30"/>
+      <c r="O36" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="68" t="s">
+      <c r="P36" s="30"/>
+      <c r="Q36" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="67"/>
+      <c r="R36" s="30"/>
       <c r="S36" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="83">
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="21" t="s">
+    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="73" t="s">
+      <c r="H37" s="32"/>
+      <c r="I37" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="74"/>
-      <c r="K37" s="21" t="s">
+      <c r="J37" s="44"/>
+      <c r="K37" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="21" t="s">
+      <c r="L37" s="32"/>
+      <c r="M37" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="21" t="s">
+      <c r="N37" s="32"/>
+      <c r="O37" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="69" t="s">
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="R37" s="22"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T37" s="17"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="21" t="s">
+      <c r="T37" s="84"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="21" t="s">
+      <c r="H38" s="32"/>
+      <c r="I38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="21" t="s">
+      <c r="J38" s="32"/>
+      <c r="K38" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="21" t="s">
+      <c r="L38" s="32"/>
+      <c r="M38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="21" t="s">
+      <c r="N38" s="32"/>
+      <c r="O38" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="69" t="s">
+      <c r="P38" s="32"/>
+      <c r="Q38" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="R38" s="22"/>
+      <c r="R38" s="32"/>
       <c r="S38" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T38" s="17"/>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="21" t="s">
+      <c r="T38" s="84"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="21" t="s">
+      <c r="H39" s="32"/>
+      <c r="I39" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21" t="s">
+      <c r="J39" s="32"/>
+      <c r="K39" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="21" t="s">
+      <c r="L39" s="32"/>
+      <c r="M39" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="21" t="s">
+      <c r="N39" s="32"/>
+      <c r="O39" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="69" t="s">
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="22"/>
+      <c r="R39" s="32"/>
       <c r="S39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T39" s="17"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="21" t="s">
+      <c r="T39" s="84"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="21" t="s">
+      <c r="H40" s="32"/>
+      <c r="I40" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="21" t="s">
+      <c r="J40" s="32"/>
+      <c r="K40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="21" t="s">
+      <c r="L40" s="32"/>
+      <c r="M40" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="21" t="s">
+      <c r="N40" s="32"/>
+      <c r="O40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="69" t="s">
+      <c r="P40" s="32"/>
+      <c r="Q40" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="R40" s="22"/>
+      <c r="R40" s="32"/>
       <c r="S40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T40" s="17"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="21" t="s">
+      <c r="T40" s="84"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="21" t="s">
+      <c r="H41" s="32"/>
+      <c r="I41" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="21" t="s">
+      <c r="J41" s="32"/>
+      <c r="K41" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="21" t="s">
+      <c r="L41" s="32"/>
+      <c r="M41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="21" t="s">
+      <c r="N41" s="32"/>
+      <c r="O41" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="69" t="s">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="R41" s="22"/>
+      <c r="R41" s="32"/>
       <c r="S41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T41" s="17"/>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="21" t="s">
+      <c r="T41" s="84"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="21" t="s">
+      <c r="H42" s="32"/>
+      <c r="I42" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="21" t="s">
+      <c r="J42" s="32"/>
+      <c r="K42" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="21" t="s">
+      <c r="L42" s="32"/>
+      <c r="M42" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="21" t="s">
+      <c r="N42" s="32"/>
+      <c r="O42" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="21" t="s">
+      <c r="P42" s="32"/>
+      <c r="Q42" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="22"/>
+      <c r="R42" s="32"/>
       <c r="S42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T42" s="17"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="21" t="s">
+      <c r="T42" s="84"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="21" t="s">
+      <c r="H43" s="32"/>
+      <c r="I43" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="21" t="s">
+      <c r="J43" s="32"/>
+      <c r="K43" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="21" t="s">
+      <c r="L43" s="32"/>
+      <c r="M43" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="21" t="s">
+      <c r="N43" s="32"/>
+      <c r="O43" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="21" t="s">
+      <c r="P43" s="32"/>
+      <c r="Q43" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="22"/>
+      <c r="R43" s="32"/>
       <c r="S43" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T43" s="17"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="21" t="s">
+      <c r="T43" s="84"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="21" t="s">
+      <c r="H44" s="32"/>
+      <c r="I44" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="21" t="s">
+      <c r="J44" s="32"/>
+      <c r="K44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="21" t="s">
+      <c r="L44" s="32"/>
+      <c r="M44" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="22"/>
-      <c r="O44" s="21" t="s">
+      <c r="N44" s="32"/>
+      <c r="O44" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="21" t="s">
+      <c r="P44" s="32"/>
+      <c r="Q44" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="22"/>
+      <c r="R44" s="32"/>
       <c r="S44" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T44" s="17"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="72" t="s">
+      <c r="T44" s="84"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="71"/>
-      <c r="I45" s="72" t="s">
+      <c r="H45" s="35"/>
+      <c r="I45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="72" t="s">
+      <c r="J45" s="35"/>
+      <c r="K45" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="71"/>
-      <c r="M45" s="72" t="s">
+      <c r="L45" s="35"/>
+      <c r="M45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="71"/>
-      <c r="O45" s="72" t="s">
+      <c r="N45" s="35"/>
+      <c r="O45" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="70" t="s">
+      <c r="P45" s="35"/>
+      <c r="Q45" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="R45" s="71"/>
+      <c r="R45" s="35"/>
       <c r="S45" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="T45" s="18"/>
-    </row>
-    <row r="49" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="44" t="s">
+      <c r="T45" s="85"/>
+    </row>
+    <row r="49" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44" t="s">
+      <c r="G49" s="17"/>
+      <c r="H49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="48" t="s">
+      <c r="I49" s="17"/>
+      <c r="J49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="45" t="s">
+      <c r="K49" s="18"/>
+      <c r="L49" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="47"/>
-      <c r="N49" s="48" t="s">
+      <c r="M49" s="39"/>
+      <c r="N49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="48"/>
+      <c r="O49" s="18"/>
       <c r="P49" s="14" t="s">
         <v>123</v>
       </c>
@@ -2649,150 +2652,150 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+    <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="66" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="66" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="66" t="s">
+      <c r="G50" s="30"/>
+      <c r="H50" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="67"/>
-      <c r="J50" s="66" t="s">
+      <c r="I50" s="30"/>
+      <c r="J50" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="84" t="s">
+      <c r="K50" s="30"/>
+      <c r="L50" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="85"/>
-      <c r="N50" s="68" t="s">
+      <c r="M50" s="41"/>
+      <c r="N50" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="67"/>
+      <c r="O50" s="30"/>
       <c r="P50" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50" s="83">
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="66" t="s">
+    <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="67"/>
-      <c r="N51" s="69" t="s">
+      <c r="M51" s="30"/>
+      <c r="N51" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="22"/>
+      <c r="O51" s="32"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="19"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="22"/>
+      <c r="Q51" s="86"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="32"/>
       <c r="P52" s="4"/>
-      <c r="Q52" s="19"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="22"/>
+      <c r="Q52" s="86"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="32"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="71"/>
+      <c r="Q53" s="86"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="35"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="20"/>
-    </row>
-    <row r="58" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="44" t="s">
+      <c r="Q54" s="87"/>
+    </row>
+    <row r="58" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A58" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44" t="s">
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44" t="s">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44" t="s">
+      <c r="J58" s="17"/>
+      <c r="K58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="44"/>
-      <c r="M58" s="48" t="s">
+      <c r="L58" s="17"/>
+      <c r="M58" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="48"/>
+      <c r="N58" s="18"/>
       <c r="O58" s="14" t="s">
         <v>123</v>
       </c>
@@ -2800,121 +2803,121 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="75" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="66" t="s">
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="67"/>
-      <c r="I59" s="66" t="s">
+      <c r="H59" s="30"/>
+      <c r="I59" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="J59" s="67"/>
-      <c r="K59" s="66" t="s">
+      <c r="J59" s="30"/>
+      <c r="K59" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="67"/>
-      <c r="M59" s="66" t="s">
+      <c r="L59" s="30"/>
+      <c r="M59" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="67"/>
-      <c r="O59" s="15" t="s">
+      <c r="N59" s="30"/>
+      <c r="O59" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="83">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="17"/>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="22"/>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="84"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="12"/>
-      <c r="P61" s="17"/>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="71"/>
+      <c r="P61" s="84"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="35"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="18"/>
-    </row>
-    <row r="66" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A66" s="44" t="s">
+      <c r="P62" s="85"/>
+    </row>
+    <row r="66" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A66" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44" t="s">
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44" t="s">
+      <c r="H66" s="17"/>
+      <c r="I66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44" t="s">
+      <c r="J66" s="17"/>
+      <c r="K66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L66" s="44"/>
-      <c r="M66" s="48" t="s">
+      <c r="L66" s="17"/>
+      <c r="M66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="48"/>
+      <c r="N66" s="18"/>
       <c r="O66" s="11" t="s">
         <v>123</v>
       </c>
@@ -2922,202 +2925,404 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="75" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="66" t="s">
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H67" s="67"/>
-      <c r="I67" s="66" t="s">
+      <c r="H67" s="30"/>
+      <c r="I67" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J67" s="67"/>
-      <c r="K67" s="66" t="s">
+      <c r="J67" s="30"/>
+      <c r="K67" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="67"/>
-      <c r="M67" s="66" t="s">
+      <c r="L67" s="30"/>
+      <c r="M67" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="67"/>
+      <c r="N67" s="30"/>
       <c r="O67" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P67" s="16">
+      <c r="P67" s="83">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="22"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P68" s="17"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="21" t="s">
+      <c r="P68" s="84"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="21" t="s">
+      <c r="H69" s="32"/>
+      <c r="I69" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J69" s="22"/>
-      <c r="K69" s="21" t="s">
+      <c r="J69" s="32"/>
+      <c r="K69" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L69" s="22"/>
-      <c r="M69" s="69" t="s">
+      <c r="L69" s="32"/>
+      <c r="M69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="22"/>
+      <c r="N69" s="32"/>
       <c r="O69" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P69" s="17"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="21" t="s">
+      <c r="P69" s="84"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="21" t="s">
+      <c r="H70" s="32"/>
+      <c r="I70" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J70" s="22"/>
-      <c r="K70" s="21" t="s">
+      <c r="J70" s="32"/>
+      <c r="K70" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="22"/>
-      <c r="M70" s="21" t="s">
+      <c r="L70" s="32"/>
+      <c r="M70" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N70" s="22"/>
+      <c r="N70" s="32"/>
       <c r="O70" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P70" s="17"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="72" t="s">
+      <c r="P70" s="84"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="71"/>
-      <c r="I71" s="72" t="s">
+      <c r="H71" s="35"/>
+      <c r="I71" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="J71" s="71"/>
-      <c r="K71" s="72" t="s">
+      <c r="J71" s="35"/>
+      <c r="K71" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L71" s="71"/>
-      <c r="M71" s="70" t="s">
+      <c r="L71" s="35"/>
+      <c r="M71" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="N71" s="71"/>
+      <c r="N71" s="35"/>
       <c r="O71" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="P71" s="18"/>
-    </row>
-    <row r="79" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="P71" s="85"/>
+    </row>
+    <row r="79" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="D79" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F79" s="86" t="s">
+      <c r="F79" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D80" s="1">
         <v>32</v>
       </c>
-      <c r="E80" s="87" t="s">
+      <c r="E80" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="87" t="s">
+      <c r="F80" s="16" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="289">
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="A67:C71"/>
-    <mergeCell ref="D67:F71"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:L68"/>
-    <mergeCell ref="M67:N68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="A59:C62"/>
-    <mergeCell ref="D59:F62"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P62"/>
+    <mergeCell ref="T36:T45"/>
+    <mergeCell ref="Q50:Q54"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="T13:T20"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="P67:P71"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A13:C20"/>
+    <mergeCell ref="D13:F20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A25:C32"/>
+    <mergeCell ref="D25:F32"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:C45"/>
+    <mergeCell ref="D36:F45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:C54"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="G58:H58"/>
@@ -3142,237 +3347,40 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="A50:C54"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:C45"/>
-    <mergeCell ref="D36:F45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A25:C32"/>
-    <mergeCell ref="D25:F32"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A13:C20"/>
-    <mergeCell ref="D13:F20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P62"/>
-    <mergeCell ref="T36:T45"/>
-    <mergeCell ref="Q50:Q54"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="T13:T20"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="P67:P71"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A59:C62"/>
+    <mergeCell ref="D59:F62"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="A67:C71"/>
+    <mergeCell ref="D67:F71"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="M67:N68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3386,15 +3394,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -3408,7 +3416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3450,7 +3458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>108</v>
       </c>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6222A3F3-B777-4496-A75F-D4A9DCF0FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1483F66-E504-4900-B633-153A27BE47A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>Project Name</t>
   </si>
@@ -222,9 +222,6 @@
     <t>ERD_01</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>caroline</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t xml:space="preserve">Moaz </t>
   </si>
   <si>
-    <t>Design - ERD -PM Tasks</t>
-  </si>
-  <si>
     <t>PM Tasks</t>
   </si>
   <si>
@@ -282,15 +276,9 @@
     <t>WP_3</t>
   </si>
   <si>
-    <t>UI Design</t>
-  </si>
-  <si>
     <t>UI_TK_01</t>
   </si>
   <si>
-    <t>making ui design</t>
-  </si>
-  <si>
     <t>reviewer</t>
   </si>
   <si>
@@ -306,18 +294,9 @@
     <t>Mking DB</t>
   </si>
   <si>
-    <t>DataBase</t>
-  </si>
-  <si>
     <t>Asmaa /abdelkrim</t>
   </si>
   <si>
-    <t>inprogress</t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>SIQ</t>
   </si>
   <si>
@@ -331,6 +310,21 @@
   </si>
   <si>
     <t>48H</t>
+  </si>
+  <si>
+    <t>making frontend</t>
+  </si>
+  <si>
+    <t>DataBase development</t>
+  </si>
+  <si>
+    <t>Backend development</t>
+  </si>
+  <si>
+    <t>FrontEnd develop</t>
+  </si>
+  <si>
+    <t>frontend - backend - database (development)</t>
   </si>
 </sst>
 </file>
@@ -424,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,24 +467,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -675,7 +651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,8 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,10 +677,156 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,187 +851,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,190 +1238,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="L1" s="34" t="s">
+      <c r="D1" s="66"/>
+      <c r="L1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="L2" s="28" t="s">
+      <c r="D2" s="70"/>
+      <c r="L2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="L3" s="37" t="s">
+      <c r="D3" s="70"/>
+      <c r="L3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="37">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="58">
         <v>45693</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="62"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="L4" s="28" t="s">
+      <c r="D4" s="70"/>
+      <c r="L4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="51"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="L5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
+      <c r="D5" s="70"/>
+      <c r="L5" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
+      <c r="D6" s="70"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="L7" s="28" t="s">
+      <c r="D7" s="70"/>
+      <c r="L7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="33"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="42" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="42" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="42" t="s">
+      <c r="L14" s="38"/>
+      <c r="M14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="42" t="s">
+      <c r="N14" s="38"/>
+      <c r="O14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44" t="s">
+      <c r="P14" s="38"/>
+      <c r="Q14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
       <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1464,310 +1430,298 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="80"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="81"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="62" t="s">
+      <c r="L17" s="19"/>
+      <c r="M17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="62" t="s">
+      <c r="N17" s="19"/>
+      <c r="O17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="81"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="81"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="64" t="s">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="V15" s="71">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" s="72"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="72"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="V18" s="72"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="72"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="81"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="72"/>
+      <c r="V20" s="81"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="72"/>
+      <c r="V21" s="81"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="72"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="42" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="42" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="42" t="s">
+      <c r="H26" s="38"/>
+      <c r="I26" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42" t="s">
+      <c r="J26" s="38"/>
+      <c r="K26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="42" t="s">
+      <c r="L26" s="38"/>
+      <c r="M26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="42" t="s">
+      <c r="N26" s="38"/>
+      <c r="O26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44" t="s">
+      <c r="P26" s="38"/>
+      <c r="Q26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
       <c r="U26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1776,246 +1730,242 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="62" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="62" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="63"/>
-      <c r="O27" s="62" t="s">
+      <c r="L27" s="19"/>
+      <c r="M27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="62" t="s">
+      <c r="N27" s="19"/>
+      <c r="O27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" s="75">
-        <v>1</v>
-      </c>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="80"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="76"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="81"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="76"/>
+      <c r="V29" s="81"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="76"/>
+      <c r="V30" s="81"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="76"/>
+      <c r="V31" s="81"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="76"/>
+      <c r="V32" s="81"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="76"/>
+      <c r="V33" s="81"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="76"/>
+      <c r="V34" s="81"/>
     </row>
     <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65" t="s">
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65" t="s">
+      <c r="K38" s="23"/>
+      <c r="L38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65" t="s">
+      <c r="M38" s="23"/>
+      <c r="N38" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="65"/>
-      <c r="P38" s="44" t="s">
+      <c r="O38" s="23"/>
+      <c r="P38" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
         <v>22</v>
       </c>
@@ -2024,185 +1974,175 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="77" t="s">
+      <c r="D39" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="62" t="s">
+      <c r="M39" s="19"/>
+      <c r="N39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="73"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="74"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="63"/>
-      <c r="L39" s="62" t="s">
+      <c r="K41" s="14"/>
+      <c r="L41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="63"/>
-      <c r="N39" s="62" t="s">
+      <c r="M41" s="14"/>
+      <c r="N41" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="63"/>
-      <c r="P39" s="62" t="s">
+      <c r="O41" s="14"/>
+      <c r="P41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U39" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="80"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="67" t="s">
+      <c r="Q41" s="14"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="74"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="67" t="s">
+      <c r="K42" s="14"/>
+      <c r="L42" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="67" t="s">
+      <c r="M42" s="14"/>
+      <c r="N42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="68"/>
-      <c r="P41" s="82" t="s">
+      <c r="O42" s="14"/>
+      <c r="P42" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U41" s="80"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="67" t="s">
+      <c r="Q42" s="14"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="74"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="68"/>
-      <c r="L42" s="67" t="s">
+      <c r="K43" s="17"/>
+      <c r="L43" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M42" s="68"/>
-      <c r="N42" s="67" t="s">
+      <c r="M43" s="17"/>
+      <c r="N43" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="68"/>
-      <c r="P42" s="67" t="s">
+      <c r="O43" s="17"/>
+      <c r="P43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U42" s="80"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="M43" s="70"/>
-      <c r="N43" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="70"/>
-      <c r="P43" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U43" s="81"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="75"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65" t="s">
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65" t="s">
+      <c r="M49" s="23"/>
+      <c r="N49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="65"/>
-      <c r="P49" s="44" t="s">
+      <c r="O49" s="23"/>
+      <c r="P49" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>77</v>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>22</v>
@@ -2212,164 +2152,272 @@
       </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="62" t="s">
+      <c r="D50" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="L50" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="19"/>
+      <c r="P50" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K50" s="63"/>
-      <c r="L50" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="M50" s="63"/>
-      <c r="N50" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="O50" s="63"/>
-      <c r="P50" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="S50" s="11" t="s">
+      <c r="S50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T50" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U50" s="79">
-        <v>1</v>
-      </c>
+      <c r="T50" s="76"/>
+      <c r="U50" s="73"/>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="80"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="74"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="80"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="74"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="80"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="74"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="81"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="75"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>71</v>
+      <c r="F58" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>11</v>
       </c>
-      <c r="E59" s="1">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1">
-        <v>3</v>
-      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G27:H34"/>
+    <mergeCell ref="I27:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="D39:F43"/>
+    <mergeCell ref="G39:I43"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F54"/>
     <mergeCell ref="G49:I49"/>
@@ -2394,137 +2442,21 @@
     <mergeCell ref="P50:Q51"/>
     <mergeCell ref="U50:U54"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D39:F43"/>
-    <mergeCell ref="G39:I43"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G27:H34"/>
-    <mergeCell ref="I27:J34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q27:T28"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2656,7 +2588,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2675,148 +2607,148 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87">
+      <c r="C4" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72">
         <v>26</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87">
+      <c r="C8" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72">
         <v>11</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87">
+      <c r="C12" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72">
         <v>44</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87">
+      <c r="C16" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72">
         <v>67</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3061,18 +2993,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3095,14 +3027,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3117,4 +3041,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1483F66-E504-4900-B633-153A27BE47A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD434FF8-CF53-42A9-B590-819DF2F16E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Project Name</t>
   </si>
@@ -153,36 +153,6 @@
     <t>Abdulkarim</t>
   </si>
   <si>
-    <t>D_FR_01</t>
-  </si>
-  <si>
-    <t>D_FR_02</t>
-  </si>
-  <si>
-    <t>D_FR_03</t>
-  </si>
-  <si>
-    <t>D_FR_04</t>
-  </si>
-  <si>
-    <t>D_FR_05</t>
-  </si>
-  <si>
-    <t>Design Login</t>
-  </si>
-  <si>
-    <t>Design Registration</t>
-  </si>
-  <si>
-    <t>Design Rate</t>
-  </si>
-  <si>
-    <t>Design Admin</t>
-  </si>
-  <si>
-    <t>Design Gallery</t>
-  </si>
-  <si>
     <t>WP_2</t>
   </si>
   <si>
@@ -207,9 +177,6 @@
     <t>10H</t>
   </si>
   <si>
-    <t>7H</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -219,9 +186,6 @@
     <t>Release #3 Planning</t>
   </si>
   <si>
-    <t>ERD_01</t>
-  </si>
-  <si>
     <t>caroline</t>
   </si>
   <si>
@@ -276,9 +240,6 @@
     <t>WP_3</t>
   </si>
   <si>
-    <t>UI_TK_01</t>
-  </si>
-  <si>
     <t>reviewer</t>
   </si>
   <si>
@@ -309,9 +270,6 @@
     <t>TC</t>
   </si>
   <si>
-    <t>48H</t>
-  </si>
-  <si>
     <t>making frontend</t>
   </si>
   <si>
@@ -325,6 +283,48 @@
   </si>
   <si>
     <t>frontend - backend - database (development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Registration feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin feature</t>
+  </si>
+  <si>
+    <t>Gallery feature</t>
+  </si>
+  <si>
+    <t>5H</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>FE_TK_01</t>
+  </si>
+  <si>
+    <t>DBD_01</t>
+  </si>
+  <si>
+    <t>BE_FR_01</t>
+  </si>
+  <si>
+    <t>BE_FR_02</t>
+  </si>
+  <si>
+    <t>BE_FR_03</t>
+  </si>
+  <si>
+    <t>BE_FR_04</t>
+  </si>
+  <si>
+    <t>BE_FR_05</t>
   </si>
 </sst>
 </file>
@@ -677,19 +677,135 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,162 +815,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,18 +862,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:U6"/>
+    <sheetView tabSelected="1" topLeftCell="G42" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,190 +1238,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="L1" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
+      <c r="D1" s="18"/>
+      <c r="L1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="L2" s="49" t="s">
+      <c r="D2" s="22"/>
+      <c r="L2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="49" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="L3" s="58" t="s">
+      <c r="D3" s="22"/>
+      <c r="L3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="58">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="33">
         <v>45693</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="62"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="L4" s="49" t="s">
+      <c r="D4" s="22"/>
+      <c r="L4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="51"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="L5" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="D5" s="22"/>
+      <c r="L5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
+      <c r="D6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="L7" s="49" t="s">
+      <c r="D7" s="22"/>
+      <c r="L7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="37" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="37" t="s">
+      <c r="L14" s="39"/>
+      <c r="M14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="37" t="s">
+      <c r="N14" s="39"/>
+      <c r="O14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="33" t="s">
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
       <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1430,298 +1430,298 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="59"/>
+      <c r="M15" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="59"/>
+      <c r="O15" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="67"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="59"/>
+      <c r="M16" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="68"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="18" t="s">
+      <c r="H17" s="64"/>
+      <c r="I17" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="59"/>
+      <c r="M17" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="59"/>
+      <c r="O17" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="68"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18" t="s">
+      <c r="J18" s="63"/>
+      <c r="K18" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="68"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="59"/>
+      <c r="M19" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="59"/>
+      <c r="O19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20" t="s">
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="80"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="81"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="81"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="81"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="81"/>
+      <c r="V19" s="68"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="81"/>
+      <c r="V20" s="68"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="81"/>
+      <c r="V21" s="68"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="81"/>
+      <c r="V22" s="68"/>
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="37" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="37" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="39"/>
+      <c r="I26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="39"/>
+      <c r="K26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="39"/>
+      <c r="M26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="37" t="s">
+      <c r="N26" s="39"/>
+      <c r="O26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="33" t="s">
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
       <c r="U26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1730,240 +1730,240 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18" t="s">
+      <c r="A27" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="18" t="s">
+      <c r="L27" s="59"/>
+      <c r="M27" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="59"/>
+      <c r="O27" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="80"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="67"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="81"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="68"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="81"/>
+      <c r="V29" s="68"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="81"/>
+      <c r="V30" s="68"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="81"/>
+      <c r="V31" s="68"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="81"/>
+      <c r="V32" s="68"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="81"/>
+      <c r="V33" s="68"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="81"/>
+      <c r="V34" s="68"/>
     </row>
     <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23" t="s">
+      <c r="K38" s="61"/>
+      <c r="L38" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23" t="s">
+      <c r="M38" s="61"/>
+      <c r="N38" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="23"/>
-      <c r="P38" s="33" t="s">
+      <c r="O38" s="61"/>
+      <c r="P38" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="40"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
@@ -1974,175 +1974,175 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="18" t="s">
+      <c r="D39" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="59"/>
+      <c r="L39" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="59"/>
+      <c r="N39" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="18" t="s">
+      <c r="O39" s="59"/>
+      <c r="P39" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="19"/>
+      <c r="Q39" s="59"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
-      <c r="T39" s="76"/>
+      <c r="T39" s="13"/>
       <c r="U39" s="73"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="14"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="64"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
-      <c r="T40" s="76"/>
+      <c r="T40" s="13"/>
       <c r="U40" s="74"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="13" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="64"/>
+      <c r="L41" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="64"/>
+      <c r="N41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15" t="s">
+      <c r="O41" s="64"/>
+      <c r="P41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="14"/>
+      <c r="Q41" s="64"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="76"/>
+      <c r="T41" s="13"/>
       <c r="U41" s="74"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="14"/>
-      <c r="N42" s="13" t="s">
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="64"/>
+      <c r="N42" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="13" t="s">
+      <c r="O42" s="64"/>
+      <c r="P42" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="14"/>
+      <c r="Q42" s="64"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="76"/>
+      <c r="T42" s="13"/>
       <c r="U42" s="74"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="16" t="s">
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="66"/>
+      <c r="L43" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="66"/>
+      <c r="N43" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="17"/>
-      <c r="P43" s="22" t="s">
+      <c r="O43" s="66"/>
+      <c r="P43" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="17"/>
+      <c r="Q43" s="66"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="77"/>
+      <c r="T43" s="14"/>
       <c r="U43" s="75"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23" t="s">
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23" t="s">
+      <c r="K49" s="61"/>
+      <c r="L49" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23" t="s">
+      <c r="M49" s="61"/>
+      <c r="N49" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="23"/>
-      <c r="P49" s="33" t="s">
+      <c r="O49" s="61"/>
+      <c r="P49" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="33"/>
+      <c r="Q49" s="40"/>
       <c r="R49" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>22</v>
@@ -2152,130 +2152,130 @@
       </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="18" t="s">
+      <c r="D50" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="59"/>
+      <c r="L50" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="M50" s="59"/>
+      <c r="N50" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="19"/>
-      <c r="P50" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q50" s="19"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="59"/>
       <c r="R50" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="S50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T50" s="76"/>
+      <c r="T50" s="13"/>
       <c r="U50" s="73"/>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="14"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="64"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
-      <c r="T51" s="76"/>
+      <c r="T51" s="13"/>
       <c r="U51" s="74"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="14"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="64"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
-      <c r="T52" s="76"/>
+      <c r="T52" s="13"/>
       <c r="U52" s="74"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="14"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="64"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
-      <c r="T53" s="76"/>
+      <c r="T53" s="13"/>
       <c r="U53" s="74"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="17"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="66"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
-      <c r="T54" s="77"/>
+      <c r="T54" s="14"/>
       <c r="U54" s="75"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
@@ -2287,24 +2287,134 @@
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F54"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G50:I54"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:Q51"/>
+    <mergeCell ref="U50:U54"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D39:F43"/>
+    <mergeCell ref="G39:I43"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G27:H34"/>
+    <mergeCell ref="I27:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="A15:C22"/>
@@ -2329,134 +2439,24 @@
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G27:H34"/>
-    <mergeCell ref="I27:J34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="D39:F43"/>
-    <mergeCell ref="G39:I43"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F54"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="G50:I54"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:Q51"/>
-    <mergeCell ref="U50:U54"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2468,7 +2468,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,115 +2481,101 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>8</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2607,148 +2593,148 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72">
+      <c r="C4" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81">
         <v>26</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72">
+      <c r="C8" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81">
         <v>11</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72">
+      <c r="C12" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81">
         <v>44</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72">
+      <c r="C16" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81">
         <v>67</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2766,6 +2752,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -2992,36 +2993,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
-    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3044,9 +3019,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
+    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD434FF8-CF53-42A9-B590-819DF2F16E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443AD00-0F2B-4EE2-9A3F-DE862C8D2C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>Project Name</t>
   </si>
@@ -192,18 +192,9 @@
     <t>asmaa</t>
   </si>
   <si>
-    <t>moaz/caroline</t>
-  </si>
-  <si>
-    <t>Abdelkrim</t>
-  </si>
-  <si>
     <t>2H</t>
   </si>
   <si>
-    <t xml:space="preserve">Moaz </t>
-  </si>
-  <si>
     <t>PM Tasks</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>PM_TK_03</t>
   </si>
   <si>
-    <t>Assigniing tasks</t>
-  </si>
-  <si>
     <t>PM_TK_04</t>
   </si>
   <si>
@@ -246,18 +234,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>mohsen</t>
-  </si>
-  <si>
-    <t>WP_4</t>
-  </si>
-  <si>
-    <t>Mking DB</t>
-  </si>
-  <si>
-    <t>Asmaa /abdelkrim</t>
-  </si>
-  <si>
     <t>SIQ</t>
   </si>
   <si>
@@ -270,18 +246,6 @@
     <t>TC</t>
   </si>
   <si>
-    <t>making frontend</t>
-  </si>
-  <si>
-    <t>DataBase development</t>
-  </si>
-  <si>
-    <t>Backend development</t>
-  </si>
-  <si>
-    <t>FrontEnd develop</t>
-  </si>
-  <si>
     <t>frontend - backend - database (development)</t>
   </si>
   <si>
@@ -303,15 +267,6 @@
     <t>5H</t>
   </si>
   <si>
-    <t>3H</t>
-  </si>
-  <si>
-    <t>FE_TK_01</t>
-  </si>
-  <si>
-    <t>DBD_01</t>
-  </si>
-  <si>
     <t>BE_FR_01</t>
   </si>
   <si>
@@ -325,6 +280,45 @@
   </si>
   <si>
     <t>BE_FR_05</t>
+  </si>
+  <si>
+    <t>moaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asmaa </t>
+  </si>
+  <si>
+    <t>abdelkrim</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>Front development</t>
+  </si>
+  <si>
+    <t>FE_FR_01</t>
+  </si>
+  <si>
+    <t>FE_FR_02</t>
+  </si>
+  <si>
+    <t>FE_FR_03</t>
+  </si>
+  <si>
+    <t>FE_FR_04</t>
+  </si>
+  <si>
+    <t>FE_FR_05</t>
+  </si>
+  <si>
+    <t>BackEnd develop</t>
+  </si>
+  <si>
+    <t>asmaa / abdlkrem</t>
+  </si>
+  <si>
+    <t>Assigning tasks</t>
   </si>
 </sst>
 </file>
@@ -651,7 +645,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,6 +673,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,12 +811,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,15 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,190 +1226,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="L1" s="30" t="s">
+      <c r="D1" s="21"/>
+      <c r="L1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="35"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="L3" s="33" t="s">
+      <c r="D3" s="25"/>
+      <c r="L3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="33">
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="36">
         <v>45693</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="37"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="L4" s="24" t="s">
+      <c r="D4" s="25"/>
+      <c r="L4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="L5" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="L5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="L7" s="24" t="s">
+      <c r="D7" s="25"/>
+      <c r="L7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
+      <c r="E14" s="63"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="38" t="s">
+      <c r="J14" s="42"/>
+      <c r="K14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="38" t="s">
+      <c r="L14" s="42"/>
+      <c r="M14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38" t="s">
+      <c r="N14" s="42"/>
+      <c r="O14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40" t="s">
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
       <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1430,540 +1418,288 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="58" t="s">
+      <c r="L15" s="17"/>
+      <c r="M15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="68"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="69"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="65"/>
+      <c r="I17" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60" t="s">
+      <c r="J17" s="65"/>
+      <c r="K17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="67"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="63" t="s">
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="69"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60" t="s">
+      <c r="L18" s="17"/>
+      <c r="M18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="68"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="58" t="s">
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="69"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="65"/>
+      <c r="I19" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="65"/>
+      <c r="K19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60" t="s">
+      <c r="P19" s="17"/>
+      <c r="Q19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="68"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="68"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="68"/>
+      <c r="V19" s="69"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="68"/>
+      <c r="V20" s="69"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="68"/>
+      <c r="V21" s="69"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="68"/>
-    </row>
-    <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="61" t="s">
+      <c r="V22" s="69"/>
+    </row>
+    <row r="38" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D38" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="38" t="s">
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38" t="s">
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38" t="s">
+      <c r="K38" s="62"/>
+      <c r="L38" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="38" t="s">
+      <c r="M38" s="62"/>
+      <c r="N38" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="38" t="s">
+      <c r="O38" s="62"/>
+      <c r="P38" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="67"/>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="68"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="68"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="68"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="68"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="68"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="68"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="68"/>
-    </row>
-    <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="61"/>
-      <c r="P38" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="40"/>
+      <c r="Q38" s="43"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
@@ -1973,176 +1709,176 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="M39" s="59"/>
-      <c r="N39" s="58" t="s">
+    <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="17"/>
+      <c r="N39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="59"/>
-      <c r="P39" s="58" t="s">
+      <c r="O39" s="17"/>
+      <c r="P39" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="59"/>
+      <c r="Q39" s="17"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="73"/>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="44"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="64"/>
+      <c r="U39" s="74"/>
+    </row>
+    <row r="40" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="65"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="74"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="64"/>
-      <c r="L41" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="64"/>
-      <c r="N41" s="63" t="s">
+      <c r="U40" s="75"/>
+    </row>
+    <row r="41" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="65"/>
+      <c r="L41" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="65"/>
+      <c r="N41" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="76" t="s">
+      <c r="O41" s="65"/>
+      <c r="P41" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="64"/>
+      <c r="Q41" s="65"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="74"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="63" t="s">
+      <c r="U41" s="75"/>
+    </row>
+    <row r="42" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="65"/>
+      <c r="L42" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="65"/>
+      <c r="N42" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="63" t="s">
+      <c r="O42" s="65"/>
+      <c r="P42" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="64"/>
+      <c r="Q42" s="65"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="74"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="66"/>
-      <c r="L43" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="M43" s="66"/>
-      <c r="N43" s="65" t="s">
+      <c r="U42" s="75"/>
+    </row>
+    <row r="43" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="50"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="67"/>
+      <c r="L43" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="67"/>
+      <c r="N43" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="66"/>
-      <c r="P43" s="72" t="s">
+      <c r="O43" s="67"/>
+      <c r="P43" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="66"/>
+      <c r="Q43" s="67"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="75"/>
-    </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="U43" s="76"/>
+    </row>
+    <row r="46" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61" t="s">
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61" t="s">
+      <c r="K49" s="62"/>
+      <c r="L49" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61" t="s">
+      <c r="M49" s="62"/>
+      <c r="N49" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="40" t="s">
+      <c r="O49" s="62"/>
+      <c r="P49" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="40"/>
+      <c r="Q49" s="43"/>
       <c r="R49" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>22</v>
@@ -2152,156 +1888,203 @@
       </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="45"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" s="59"/>
-      <c r="L50" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="M50" s="59"/>
-      <c r="N50" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="O50" s="59"/>
-      <c r="P50" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q50" s="59"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="17"/>
+      <c r="P50" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="17"/>
       <c r="R50" s="9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="S50" s="9" t="s">
         <v>27</v>
       </c>
       <c r="T50" s="13"/>
-      <c r="U50" s="73"/>
+      <c r="U50" s="74"/>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51" s="65"/>
+      <c r="L51" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="65"/>
+      <c r="N51" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" s="65"/>
+      <c r="P51" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T51" s="13"/>
-      <c r="U51" s="74"/>
+      <c r="U51" s="75"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="44"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="65"/>
+      <c r="L52" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="65"/>
+      <c r="N52" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="O52" s="65"/>
+      <c r="P52" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T52" s="13"/>
-      <c r="U52" s="74"/>
+      <c r="U52" s="75"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="63"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="64" t="s">
+        <v>71</v>
+      </c>
       <c r="K53" s="64"/>
-      <c r="L53" s="63"/>
+      <c r="L53" s="64" t="s">
+        <v>65</v>
+      </c>
       <c r="M53" s="64"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
+      <c r="N53" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="65"/>
+      <c r="P53" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T53" s="13"/>
-      <c r="U53" s="74"/>
+      <c r="U53" s="75"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="67"/>
+      <c r="L54" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="67"/>
+      <c r="N54" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54" s="67"/>
+      <c r="P54" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="T54" s="14"/>
-      <c r="U54" s="75"/>
+      <c r="U54" s="76"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
+  <mergeCells count="131">
     <mergeCell ref="P53:Q53"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P50:Q50"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F54"/>
     <mergeCell ref="G49:I49"/>
@@ -2320,12 +2103,18 @@
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="G50:I54"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:Q51"/>
     <mergeCell ref="U50:U54"/>
     <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F43"/>
     <mergeCell ref="G39:I43"/>
     <mergeCell ref="J39:K40"/>
@@ -2335,51 +2124,14 @@
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G27:H34"/>
-    <mergeCell ref="I27:J34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
@@ -2391,6 +2143,14 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="V15:V22"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -2407,19 +2167,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
@@ -2431,14 +2178,16 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="L5:U6"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="P7:U7"/>
@@ -2448,15 +2197,11 @@
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="L4:U4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2468,7 +2213,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,8 +2245,8 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2">
-        <v>10</v>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -2512,8 +2257,8 @@
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2">
-        <v>10</v>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2524,8 +2269,8 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2536,8 +2281,8 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2">
-        <v>10</v>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -2548,8 +2293,8 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2">
-        <v>10</v>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2560,8 +2305,8 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2">
-        <v>10</v>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2593,148 +2338,148 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81">
+      <c r="C4" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79">
         <v>26</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81">
+      <c r="C8" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79">
         <v>11</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79">
+        <v>44</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79">
         <v>67</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81">
-        <v>44</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81">
-        <v>67</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2752,21 +2497,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -2993,15 +2729,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3018,7 +2755,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3035,4 +2772,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mohamed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443AD00-0F2B-4EE2-9A3F-DE862C8D2C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF348108-BF7E-49FF-A681-4A8D062C7FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Project Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>26/4/2025</t>
-  </si>
-  <si>
     <t>Deliverables</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>WP_1</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>Mohsen</t>
   </si>
   <si>
@@ -174,27 +168,12 @@
     <t>Ahmed Abdelrahman</t>
   </si>
   <si>
-    <t>10H</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>60H</t>
-  </si>
-  <si>
     <t>Release #3 Planning</t>
   </si>
   <si>
-    <t>caroline</t>
-  </si>
-  <si>
-    <t>asmaa</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
     <t>PM Tasks</t>
   </si>
   <si>
@@ -213,6 +192,9 @@
     <t>PM_TK_03</t>
   </si>
   <si>
+    <t>Assigniing tasks</t>
+  </si>
+  <si>
     <t>PM_TK_04</t>
   </si>
   <si>
@@ -234,6 +216,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>WP_4</t>
+  </si>
+  <si>
     <t>SIQ</t>
   </si>
   <si>
@@ -246,79 +231,40 @@
     <t>TC</t>
   </si>
   <si>
-    <t>frontend - backend - database (development)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Login feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Registration feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin feature</t>
-  </si>
-  <si>
-    <t>Gallery feature</t>
-  </si>
-  <si>
-    <t>5H</t>
-  </si>
-  <si>
-    <t>BE_FR_01</t>
-  </si>
-  <si>
-    <t>BE_FR_02</t>
-  </si>
-  <si>
-    <t>BE_FR_03</t>
-  </si>
-  <si>
-    <t>BE_FR_04</t>
-  </si>
-  <si>
-    <t>BE_FR_05</t>
-  </si>
-  <si>
-    <t>moaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asmaa </t>
-  </si>
-  <si>
-    <t>abdelkrim</t>
-  </si>
-  <si>
-    <t>ahmed</t>
-  </si>
-  <si>
-    <t>Front development</t>
-  </si>
-  <si>
-    <t>FE_FR_01</t>
-  </si>
-  <si>
-    <t>FE_FR_02</t>
-  </si>
-  <si>
-    <t>FE_FR_03</t>
-  </si>
-  <si>
-    <t>FE_FR_04</t>
-  </si>
-  <si>
-    <t>FE_FR_05</t>
-  </si>
-  <si>
-    <t>BackEnd develop</t>
-  </si>
-  <si>
-    <t>asmaa / abdlkrem</t>
-  </si>
-  <si>
-    <t>Assigning tasks</t>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>admin panel</t>
+  </si>
+  <si>
+    <t>user profile</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>TC_Execution</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>GALLERY</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
   </si>
 </sst>
 </file>
@@ -645,7 +591,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,15 +619,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +748,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,11 +805,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1206,14 +1176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
@@ -1226,840 +1196,980 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="L1" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="35"/>
+      <c r="D1" s="18"/>
+      <c r="L1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="L2" s="27" t="s">
+      <c r="D2" s="22"/>
+      <c r="L2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="27" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="L3" s="36" t="s">
+      <c r="D3" s="22"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="37"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="L4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="36">
-        <v>45693</v>
-      </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="40"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="L4" s="27" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="L7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="67"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="68"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="68"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="68"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="68"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="68"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="68"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="68"/>
+    </row>
+    <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="39"/>
+      <c r="K26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="39"/>
+      <c r="M26" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="39"/>
+      <c r="O26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="L7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30" t="s">
+      <c r="H27" s="83"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="67"/>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="68"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="68"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="68"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="85"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="68"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="85"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="68"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="85"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="68"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="68"/>
+    </row>
+    <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D38" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-    </row>
-    <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="41" t="s">
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="41" t="s">
+      <c r="K38" s="61"/>
+      <c r="L38" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="41" t="s">
+      <c r="M38" s="61"/>
+      <c r="N38" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="41" t="s">
+      <c r="O38" s="61"/>
+      <c r="P38" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="68"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="69"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="69"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="69"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="69"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="69"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="69"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="69"/>
-    </row>
-    <row r="38" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="62"/>
-      <c r="P38" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="43"/>
+      <c r="Q38" s="40"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" s="17"/>
-      <c r="N39" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" s="17"/>
-      <c r="P39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="17"/>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="59"/>
+      <c r="L39" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="59"/>
+      <c r="N39" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="59"/>
+      <c r="P39" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="59"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="74"/>
-    </row>
-    <row r="40" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="65"/>
+      <c r="U39" s="73"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="64"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="75"/>
-    </row>
-    <row r="41" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="65"/>
-      <c r="L41" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" s="65"/>
-      <c r="N41" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" s="65"/>
-      <c r="P41" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="65"/>
+      <c r="U40" s="74"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="64"/>
+      <c r="L41" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="64"/>
+      <c r="N41" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="64"/>
+      <c r="P41" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="64"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="75"/>
-    </row>
-    <row r="42" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" s="65"/>
-      <c r="L42" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="65"/>
-      <c r="N42" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="O42" s="65"/>
-      <c r="P42" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="65"/>
+      <c r="U41" s="74"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="64"/>
+      <c r="N42" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="64"/>
+      <c r="P42" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="64"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="75"/>
-    </row>
-    <row r="43" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="50"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="67"/>
-      <c r="L43" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="67"/>
-      <c r="N43" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="67"/>
-      <c r="P43" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="67"/>
+      <c r="U42" s="74"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="66"/>
+      <c r="L43" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="66"/>
+      <c r="N43" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="66"/>
+      <c r="P43" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="66"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="76"/>
-    </row>
-    <row r="46" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="U43" s="75"/>
+    </row>
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62" t="s">
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62" t="s">
+      <c r="K49" s="61"/>
+      <c r="L49" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62" t="s">
+      <c r="M49" s="61"/>
+      <c r="N49" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62" t="s">
+      <c r="O49" s="61"/>
+      <c r="P49" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="62"/>
-      <c r="P49" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="43"/>
+      <c r="Q49" s="40"/>
       <c r="R49" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O50" s="17"/>
-      <c r="P50" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S50" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D50" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="74"/>
+      <c r="U50" s="73"/>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="K51" s="65"/>
-      <c r="L51" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="65"/>
-      <c r="N51" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="O51" s="65"/>
-      <c r="P51" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="75"/>
+      <c r="U51" s="74"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52" s="65"/>
-      <c r="L52" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="M52" s="65"/>
-      <c r="N52" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="O52" s="65"/>
-      <c r="P52" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S52" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="75"/>
+      <c r="U52" s="74"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="64" t="s">
-        <v>71</v>
-      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="64"/>
-      <c r="L53" s="64" t="s">
-        <v>65</v>
-      </c>
+      <c r="L53" s="63"/>
       <c r="M53" s="64"/>
-      <c r="N53" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="O53" s="65"/>
-      <c r="P53" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S53" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="N53" s="63"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="75"/>
+      <c r="U53" s="74"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="50"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="K54" s="67"/>
-      <c r="L54" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="67"/>
-      <c r="N54" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="O54" s="67"/>
-      <c r="P54" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S54" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
       <c r="T54" s="14"/>
-      <c r="U54" s="76"/>
+      <c r="U54" s="75"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
@@ -2070,21 +2180,27 @@
       <c r="F59" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="177">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
     <mergeCell ref="P53:Q53"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q27:T28"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F54"/>
     <mergeCell ref="G49:I49"/>
@@ -2103,18 +2219,12 @@
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="G50:I54"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:Q51"/>
     <mergeCell ref="U50:U54"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F43"/>
     <mergeCell ref="G39:I43"/>
     <mergeCell ref="J39:K40"/>
@@ -2124,14 +2234,53 @@
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="I27:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
@@ -2143,14 +2292,6 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="V15:V22"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -2167,6 +2308,19 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
@@ -2178,7 +2332,23 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B7"/>
@@ -2188,20 +2358,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2213,7 +2369,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,51 +2382,51 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2278,11 +2434,11 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -2290,11 +2446,11 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2302,24 +2458,20 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
   </sheetData>
@@ -2338,148 +2490,148 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79">
+      <c r="C4" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81">
         <v>26</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79">
+      <c r="C8" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81">
         <v>11</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79">
+      <c r="C12" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81">
         <v>44</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79">
+      <c r="C16" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81">
         <v>67</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2497,12 +2649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -2729,7 +2875,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2738,24 +2884,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
-    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2774,10 +2909,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
+    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mohamed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF348108-BF7E-49FF-A681-4A8D062C7FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84282E9-3002-4C65-9090-6DCBC4D417B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>Project Name</t>
   </si>
@@ -96,6 +96,9 @@
     <t>End Date</t>
   </si>
   <si>
+    <t>26/4/2025</t>
+  </si>
+  <si>
     <t>Deliverables</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
     <t>WP_1</t>
   </si>
   <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
     <t>Mohsen</t>
   </si>
   <si>
@@ -168,12 +174,27 @@
     <t>Ahmed Abdelrahman</t>
   </si>
   <si>
+    <t>10H</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>60H</t>
+  </si>
+  <si>
     <t>Release #3 Planning</t>
   </si>
   <si>
+    <t>caroline</t>
+  </si>
+  <si>
+    <t>asmaa</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
     <t>PM Tasks</t>
   </si>
   <si>
@@ -192,9 +213,6 @@
     <t>PM_TK_03</t>
   </si>
   <si>
-    <t>Assigniing tasks</t>
-  </si>
-  <si>
     <t>PM_TK_04</t>
   </si>
   <si>
@@ -216,9 +234,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>WP_4</t>
-  </si>
-  <si>
     <t>SIQ</t>
   </si>
   <si>
@@ -231,40 +246,82 @@
     <t>TC</t>
   </si>
   <si>
-    <t>backend</t>
-  </si>
-  <si>
-    <t>admin panel</t>
-  </si>
-  <si>
-    <t>user profile</t>
-  </si>
-  <si>
-    <t>booking</t>
-  </si>
-  <si>
-    <t>TC_Execution</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>GALLERY</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>PROFILE</t>
+    <t>frontend - backend - database (development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Registration feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin feature</t>
+  </si>
+  <si>
+    <t>Gallery feature</t>
+  </si>
+  <si>
+    <t>5H</t>
+  </si>
+  <si>
+    <t>BE_FR_01</t>
+  </si>
+  <si>
+    <t>BE_FR_02</t>
+  </si>
+  <si>
+    <t>BE_FR_03</t>
+  </si>
+  <si>
+    <t>BE_FR_04</t>
+  </si>
+  <si>
+    <t>BE_FR_05</t>
+  </si>
+  <si>
+    <t>moaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asmaa </t>
+  </si>
+  <si>
+    <t>abdelkrim</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>Front development</t>
+  </si>
+  <si>
+    <t>FE_FR_01</t>
+  </si>
+  <si>
+    <t>FE_FR_02</t>
+  </si>
+  <si>
+    <t>FE_FR_03</t>
+  </si>
+  <si>
+    <t>FE_FR_04</t>
+  </si>
+  <si>
+    <t>FE_FR_05</t>
+  </si>
+  <si>
+    <t>BackEnd develop</t>
+  </si>
+  <si>
+    <t>asmaa / abdlkrem</t>
+  </si>
+  <si>
+    <t>Assigning tasks</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -591,7 +648,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,7 +675,102 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,42 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,95 +864,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1176,14 +1208,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
@@ -1196,1011 +1228,982 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="L1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
+      <c r="D1" s="49"/>
+      <c r="L1" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="63"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="D2" s="53"/>
+      <c r="L2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="37"/>
+      <c r="D3" s="53"/>
+      <c r="L3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="64">
+        <v>45693</v>
+      </c>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="L4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+      <c r="D4" s="53"/>
+      <c r="L4" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="D5" s="53"/>
+      <c r="L5" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="D6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="L7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27" t="s">
+      <c r="D7" s="53"/>
+      <c r="L7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="60"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="38" t="s">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="38" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="38" t="s">
+      <c r="H14" s="45"/>
+      <c r="I14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="38" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38" t="s">
+      <c r="L14" s="45"/>
+      <c r="M14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40" t="s">
+      <c r="N14" s="45"/>
+      <c r="O14" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="42"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="42"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="42"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="42"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="42"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="42"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="42"/>
+    </row>
+    <row r="38" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="67"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="68"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="68"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="68"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="68"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="68"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="68"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="68"/>
-    </row>
-    <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="38" t="s">
+      <c r="O38" s="23"/>
+      <c r="P38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="67"/>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="68"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="68"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="68"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="68"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="68"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="68"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="68"/>
-    </row>
-    <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="61"/>
-      <c r="P38" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="40"/>
+      <c r="Q38" s="37"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" s="59"/>
-      <c r="N39" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="59"/>
-      <c r="P39" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="59"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="16"/>
+      <c r="N39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="16"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="73"/>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="44"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="64"/>
+      <c r="T39" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="22"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="74"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="64"/>
-      <c r="L41" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="64"/>
-      <c r="N41" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="64"/>
+      <c r="T40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U40" s="34"/>
+    </row>
+    <row r="41" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="22"/>
+      <c r="P41" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="22"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="74"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q42" s="64"/>
+      <c r="T41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U41" s="34"/>
+    </row>
+    <row r="42" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="22"/>
+      <c r="L42" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" s="22"/>
+      <c r="P42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="22"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="74"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="66"/>
-      <c r="L43" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43" s="66"/>
-      <c r="N43" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="66"/>
-      <c r="P43" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="66"/>
+      <c r="T42" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U42" s="34"/>
+    </row>
+    <row r="43" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="P43" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="18"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="75"/>
-    </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="T43" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U43" s="35"/>
+    </row>
+    <row r="46" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
+      <c r="D49" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61" t="s">
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="40" t="s">
+      <c r="M49" s="23"/>
+      <c r="N49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="40"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="37"/>
       <c r="R49" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="73"/>
+      <c r="D50" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="16"/>
+      <c r="N50" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U50" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="74"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51" s="22"/>
+      <c r="L51" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="22"/>
+      <c r="N51" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" s="22"/>
+      <c r="P51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U51" s="34"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="44"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="74"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="22"/>
+      <c r="L52" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="22"/>
+      <c r="N52" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O52" s="22"/>
+      <c r="P52" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U52" s="34"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="74"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="22"/>
+      <c r="P53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U53" s="34"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="75"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54" s="18"/>
+      <c r="P54" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U54" s="35"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>14</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1">
+        <v>14</v>
+      </c>
       <c r="F59" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:T28"/>
+  <mergeCells count="131">
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F43"/>
+    <mergeCell ref="G39:I43"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F54"/>
     <mergeCell ref="G49:I49"/>
@@ -2219,145 +2222,26 @@
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="G50:I54"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:Q51"/>
     <mergeCell ref="U50:U54"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D39:F43"/>
-    <mergeCell ref="G39:I43"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="I27:J34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P50:Q50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,7 +2253,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,97 +2266,115 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2490,148 +2392,148 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81">
+      <c r="C4" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78">
         <v>26</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81">
+      <c r="C8" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78">
         <v>11</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81">
+      <c r="C12" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78">
         <v>44</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81">
+      <c r="C16" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78">
         <v>67</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2649,6 +2551,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -2875,15 +2786,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2891,6 +2793,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2905,14 +2815,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84282E9-3002-4C65-9090-6DCBC4D417B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04785C4-24BE-4861-B106-CA8212EA29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -415,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +464,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -648,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,99 +684,87 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,15 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,34 +825,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="H44" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50:U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,190 +1243,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="L1" s="61" t="s">
+      <c r="D1" s="45"/>
+      <c r="L1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="63"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="L2" s="55" t="s">
+      <c r="D2" s="49"/>
+      <c r="L2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="55" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="49"/>
+      <c r="L3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="64">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="57">
         <v>45693</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="L4" s="55" t="s">
+      <c r="D4" s="49"/>
+      <c r="L4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="57"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="L5" s="54" t="s">
+      <c r="D5" s="49"/>
+      <c r="L5" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
+      <c r="D6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="L7" s="55" t="s">
+      <c r="D7" s="49"/>
+      <c r="L7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="43" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="43" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="43" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="43" t="s">
+      <c r="L14" s="19"/>
+      <c r="M14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="43" t="s">
+      <c r="N14" s="19"/>
+      <c r="O14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="37" t="s">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
       <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1420,300 +1435,300 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15" t="s">
+      <c r="N15" s="39"/>
+      <c r="O15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="40" t="s">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
       <c r="U15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="21" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="15" t="s">
+      <c r="J16" s="68"/>
+      <c r="K16" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15" t="s">
+      <c r="L16" s="39"/>
+      <c r="M16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="15" t="s">
+      <c r="N16" s="39"/>
+      <c r="O16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="40" t="s">
+      <c r="P16" s="39"/>
+      <c r="Q16" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
       <c r="U16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V16" s="42"/>
+      <c r="V16" s="66"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="21" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="68"/>
+      <c r="I17" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="68"/>
+      <c r="K17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="39"/>
+      <c r="M17" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="15" t="s">
+      <c r="N17" s="39"/>
+      <c r="O17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="40" t="s">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
       <c r="U17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="42"/>
+      <c r="V17" s="66"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="21" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="67"/>
+      <c r="K18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="15" t="s">
+      <c r="L18" s="39"/>
+      <c r="M18" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="15" t="s">
+      <c r="N18" s="39"/>
+      <c r="O18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="40" t="s">
+      <c r="P18" s="39"/>
+      <c r="Q18" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
       <c r="U18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V18" s="42"/>
+      <c r="V18" s="66"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="21" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="68"/>
+      <c r="K19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15" t="s">
+      <c r="L19" s="39"/>
+      <c r="M19" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="15" t="s">
+      <c r="N19" s="39"/>
+      <c r="O19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="40" t="s">
+      <c r="P19" s="39"/>
+      <c r="Q19" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
       <c r="U19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="42"/>
+      <c r="V19" s="66"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="42"/>
+      <c r="V20" s="66"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="42"/>
+      <c r="V21" s="66"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="42"/>
+      <c r="V22" s="66"/>
     </row>
     <row r="38" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23" t="s">
+      <c r="K38" s="40"/>
+      <c r="L38" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23" t="s">
+      <c r="M38" s="40"/>
+      <c r="N38" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="23"/>
-      <c r="P38" s="37" t="s">
+      <c r="O38" s="40"/>
+      <c r="P38" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="37"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
@@ -1724,182 +1739,182 @@
       </c>
     </row>
     <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="38" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="15" t="s">
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="15" t="s">
+      <c r="K39" s="39"/>
+      <c r="L39" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="15" t="s">
+      <c r="M39" s="39"/>
+      <c r="N39" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="15" t="s">
+      <c r="O39" s="39"/>
+      <c r="P39" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="16"/>
+      <c r="Q39" s="39"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" t="s">
         <v>86</v>
       </c>
-      <c r="U39" s="33">
+      <c r="U39" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="22"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="68"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U40" s="34"/>
+      <c r="U40" s="74"/>
     </row>
     <row r="41" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="21" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="21" t="s">
+      <c r="K41" s="68"/>
+      <c r="L41" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="21" t="s">
+      <c r="M41" s="68"/>
+      <c r="N41" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="36" t="s">
+      <c r="O41" s="68"/>
+      <c r="P41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="22"/>
+      <c r="Q41" s="68"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U41" s="34"/>
+      <c r="U41" s="74"/>
     </row>
     <row r="42" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="21" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="21" t="s">
+      <c r="K42" s="68"/>
+      <c r="L42" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="21" t="s">
+      <c r="M42" s="68"/>
+      <c r="N42" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="21" t="s">
+      <c r="O42" s="68"/>
+      <c r="P42" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="22"/>
+      <c r="Q42" s="68"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U42" s="34"/>
+      <c r="U42" s="74"/>
     </row>
     <row r="43" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="17" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="17" t="s">
+      <c r="K43" s="64"/>
+      <c r="L43" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17" t="s">
+      <c r="M43" s="64"/>
+      <c r="N43" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="18"/>
-      <c r="P43" s="39" t="s">
+      <c r="O43" s="64"/>
+      <c r="P43" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="18"/>
+      <c r="Q43" s="64"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U43" s="35"/>
+      <c r="U43" s="75"/>
     </row>
     <row r="46" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23" t="s">
+      <c r="K49" s="40"/>
+      <c r="L49" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23" t="s">
+      <c r="M49" s="40"/>
+      <c r="N49" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="23"/>
-      <c r="P49" s="37" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="37"/>
+      <c r="Q49" s="20"/>
       <c r="R49" s="11" t="s">
         <v>55</v>
       </c>
@@ -1914,32 +1929,32 @@
       </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="38" t="s">
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="15" t="s">
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="15" t="s">
+      <c r="K50" s="39"/>
+      <c r="L50" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="15" t="s">
+      <c r="M50" s="39"/>
+      <c r="N50" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="15" t="s">
+      <c r="O50" s="39"/>
+      <c r="P50" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="16"/>
+      <c r="Q50" s="39"/>
       <c r="R50" s="9" t="s">
         <v>41</v>
       </c>
@@ -1949,33 +1964,33 @@
       <c r="T50" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U50" s="33">
+      <c r="U50" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="21" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="22"/>
-      <c r="L51" s="21" t="s">
+      <c r="K51" s="68"/>
+      <c r="L51" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="21" t="s">
+      <c r="M51" s="68"/>
+      <c r="N51" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="O51" s="22"/>
-      <c r="P51" s="15" t="s">
+      <c r="O51" s="68"/>
+      <c r="P51" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q51" s="16"/>
+      <c r="Q51" s="39"/>
       <c r="R51" s="9" t="s">
         <v>41</v>
       </c>
@@ -1985,31 +2000,31 @@
       <c r="T51" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U51" s="34"/>
+      <c r="U51" s="80"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="21" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="K52" s="22"/>
-      <c r="L52" s="21" t="s">
+      <c r="K52" s="68"/>
+      <c r="L52" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="21" t="s">
+      <c r="M52" s="68"/>
+      <c r="N52" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="15" t="s">
+      <c r="O52" s="68"/>
+      <c r="P52" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="16"/>
+      <c r="Q52" s="39"/>
       <c r="R52" s="9" t="s">
         <v>41</v>
       </c>
@@ -2019,31 +2034,31 @@
       <c r="T52" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U52" s="34"/>
+      <c r="U52" s="80"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="21" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21" t="s">
+      <c r="K53" s="67"/>
+      <c r="L53" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21" t="s">
+      <c r="M53" s="67"/>
+      <c r="N53" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="15" t="s">
+      <c r="O53" s="68"/>
+      <c r="P53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="16"/>
+      <c r="Q53" s="39"/>
       <c r="R53" s="9" t="s">
         <v>41</v>
       </c>
@@ -2053,31 +2068,31 @@
       <c r="T53" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U53" s="34"/>
+      <c r="U53" s="80"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="17" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="17" t="s">
+      <c r="K54" s="64"/>
+      <c r="L54" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17" t="s">
+      <c r="M54" s="64"/>
+      <c r="N54" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="O54" s="18"/>
-      <c r="P54" s="19" t="s">
+      <c r="O54" s="64"/>
+      <c r="P54" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="Q54" s="20"/>
+      <c r="Q54" s="70"/>
       <c r="R54" s="14" t="s">
         <v>41</v>
       </c>
@@ -2087,7 +2102,7 @@
       <c r="T54" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="U54" s="35"/>
+      <c r="U54" s="81"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
@@ -2111,39 +2126,65 @@
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F54"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G50:I54"/>
+    <mergeCell ref="U50:U54"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F43"/>
+    <mergeCell ref="G39:I43"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
     <mergeCell ref="V15:V22"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -2168,9 +2209,42 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="I22:J22"/>
@@ -2183,65 +2257,6 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F43"/>
-    <mergeCell ref="G39:I43"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F54"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="G50:I54"/>
-    <mergeCell ref="U50:U54"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P50:Q50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,15 +2566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -2786,6 +2792,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2793,14 +2808,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2815,6 +2822,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mohamed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04785C4-24BE-4861-B106-CA8212EA29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF348108-BF7E-49FF-A681-4A8D062C7FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Project Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>26/4/2025</t>
-  </si>
-  <si>
     <t>Deliverables</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>WP_1</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>Mohsen</t>
   </si>
   <si>
@@ -174,27 +168,12 @@
     <t>Ahmed Abdelrahman</t>
   </si>
   <si>
-    <t>10H</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>60H</t>
-  </si>
-  <si>
     <t>Release #3 Planning</t>
   </si>
   <si>
-    <t>caroline</t>
-  </si>
-  <si>
-    <t>asmaa</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
     <t>PM Tasks</t>
   </si>
   <si>
@@ -213,6 +192,9 @@
     <t>PM_TK_03</t>
   </si>
   <si>
+    <t>Assigniing tasks</t>
+  </si>
+  <si>
     <t>PM_TK_04</t>
   </si>
   <si>
@@ -234,6 +216,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>WP_4</t>
+  </si>
+  <si>
     <t>SIQ</t>
   </si>
   <si>
@@ -246,82 +231,40 @@
     <t>TC</t>
   </si>
   <si>
-    <t>frontend - backend - database (development)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Login feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Registration feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin feature</t>
-  </si>
-  <si>
-    <t>Gallery feature</t>
-  </si>
-  <si>
-    <t>5H</t>
-  </si>
-  <si>
-    <t>BE_FR_01</t>
-  </si>
-  <si>
-    <t>BE_FR_02</t>
-  </si>
-  <si>
-    <t>BE_FR_03</t>
-  </si>
-  <si>
-    <t>BE_FR_04</t>
-  </si>
-  <si>
-    <t>BE_FR_05</t>
-  </si>
-  <si>
-    <t>moaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asmaa </t>
-  </si>
-  <si>
-    <t>abdelkrim</t>
-  </si>
-  <si>
-    <t>ahmed</t>
-  </si>
-  <si>
-    <t>Front development</t>
-  </si>
-  <si>
-    <t>FE_FR_01</t>
-  </si>
-  <si>
-    <t>FE_FR_02</t>
-  </si>
-  <si>
-    <t>FE_FR_03</t>
-  </si>
-  <si>
-    <t>FE_FR_04</t>
-  </si>
-  <si>
-    <t>FE_FR_05</t>
-  </si>
-  <si>
-    <t>BackEnd develop</t>
-  </si>
-  <si>
-    <t>asmaa / abdlkrem</t>
-  </si>
-  <si>
-    <t>Assigning tasks</t>
-  </si>
-  <si>
-    <t>done</t>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>admin panel</t>
+  </si>
+  <si>
+    <t>user profile</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>TC_Execution</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>GALLERY</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
   </si>
 </sst>
 </file>
@@ -415,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,12 +407,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -654,7 +591,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,7 +618,32 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +655,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,131 +754,89 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1223,14 +1176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H44" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50:U54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
@@ -1243,903 +1196,1011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="L1" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
+      <c r="D1" s="18"/>
+      <c r="L1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="L2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="L2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="15" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="L3" s="57" t="s">
+      <c r="D3" s="22"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="37"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="L4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="57">
-        <v>45693</v>
-      </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="L7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="L5" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="51" t="s">
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="53"/>
-    </row>
-    <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="39"/>
+      <c r="M14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="39"/>
+      <c r="O14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18" t="s">
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="65">
-        <v>1</v>
-      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="67"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="66"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="68"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="66"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="68"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="66"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="68"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="66"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="68"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="66"/>
+      <c r="V20" s="68"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="66"/>
+      <c r="V21" s="68"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="69"/>
       <c r="L22" s="70"/>
       <c r="M22" s="69"/>
       <c r="N22" s="70"/>
       <c r="O22" s="69"/>
       <c r="P22" s="70"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="66"/>
-    </row>
-    <row r="38" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="40" t="s">
+      <c r="V22" s="68"/>
+    </row>
+    <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40" t="s">
+      <c r="H26" s="39"/>
+      <c r="I26" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40" t="s">
+      <c r="J26" s="39"/>
+      <c r="K26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40" t="s">
+      <c r="L26" s="39"/>
+      <c r="M26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="20" t="s">
+      <c r="N26" s="39"/>
+      <c r="O26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="20"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="83"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="67"/>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="68"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="68"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="68"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="85"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="68"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="85"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="68"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="85"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="68"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="68"/>
+    </row>
+    <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D38" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="61"/>
+      <c r="P38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="40"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" s="39"/>
-      <c r="L39" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" s="39"/>
-      <c r="N39" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" s="39"/>
-      <c r="P39" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="59"/>
+      <c r="L39" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="59"/>
+      <c r="N39" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="59"/>
+      <c r="P39" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="59"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
-      <c r="T39" t="s">
-        <v>86</v>
-      </c>
-      <c r="U39" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="68"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="73"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="64"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
-      <c r="T40" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="T40" s="13"/>
       <c r="U40" s="74"/>
     </row>
-    <row r="41" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" s="68"/>
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="64"/>
+      <c r="L41" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="64"/>
+      <c r="N41" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="64"/>
       <c r="P41" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="68"/>
+        <v>25</v>
+      </c>
+      <c r="Q41" s="64"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="T41" s="13"/>
       <c r="U41" s="74"/>
     </row>
-    <row r="42" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" s="68"/>
-      <c r="L42" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="68"/>
-      <c r="N42" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="O42" s="68"/>
-      <c r="P42" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="68"/>
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="64"/>
+      <c r="N42" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="64"/>
+      <c r="P42" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="64"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="T42" s="13"/>
       <c r="U42" s="74"/>
     </row>
-    <row r="43" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="64"/>
-      <c r="L43" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="64"/>
-      <c r="N43" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="64"/>
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="66"/>
+      <c r="L43" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="66"/>
+      <c r="N43" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="66"/>
       <c r="P43" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="64"/>
+        <v>25</v>
+      </c>
+      <c r="Q43" s="66"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="T43" s="14"/>
       <c r="U43" s="75"/>
     </row>
-    <row r="46" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40" t="s">
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40" t="s">
+      <c r="K49" s="61"/>
+      <c r="L49" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40" t="s">
+      <c r="M49" s="61"/>
+      <c r="N49" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40" t="s">
+      <c r="O49" s="61"/>
+      <c r="P49" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="40"/>
-      <c r="P49" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="20"/>
+      <c r="Q49" s="40"/>
       <c r="R49" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="K50" s="39"/>
-      <c r="L50" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="M50" s="39"/>
-      <c r="N50" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="O50" s="39"/>
-      <c r="P50" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S50" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U50" s="79">
-        <v>1</v>
-      </c>
+      <c r="D50" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="73"/>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="K51" s="68"/>
-      <c r="L51" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="68"/>
-      <c r="N51" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O51" s="68"/>
-      <c r="P51" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U51" s="80"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="74"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52" s="68"/>
-      <c r="L52" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="M52" s="68"/>
-      <c r="N52" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O52" s="68"/>
-      <c r="P52" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U52" s="80"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="74"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="O53" s="68"/>
-      <c r="P53" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U53" s="80"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="74"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="K54" s="64"/>
-      <c r="L54" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="64"/>
-      <c r="N54" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="O54" s="64"/>
-      <c r="P54" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S54" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U54" s="81"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="75"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>14</v>
       </c>
-      <c r="E59" s="1">
-        <v>14</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="177">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
     <mergeCell ref="P53:Q53"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q27:T28"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F54"/>
     <mergeCell ref="G49:I49"/>
@@ -2158,13 +2219,12 @@
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="G50:I54"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:Q51"/>
     <mergeCell ref="U50:U54"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F43"/>
     <mergeCell ref="G39:I43"/>
     <mergeCell ref="J39:K40"/>
@@ -2174,17 +2234,64 @@
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="I27:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
     <mergeCell ref="V15:V22"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -2201,15 +2308,47 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B7"/>
@@ -2219,44 +2358,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2268,7 +2369,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,115 +2382,97 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2407,148 +2490,148 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78">
+      <c r="C4" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81">
         <v>26</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78">
+      <c r="C8" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81">
         <v>11</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78">
+      <c r="C12" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81">
         <v>44</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78">
+      <c r="C16" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81">
         <v>67</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mohamed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF348108-BF7E-49FF-A681-4A8D062C7FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D69764-086B-4B8D-9486-51D7F9E1D856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Release #3 Planning</t>
-  </si>
-  <si>
     <t>PM Tasks</t>
   </si>
   <si>
@@ -210,15 +207,6 @@
     <t>WP_3</t>
   </si>
   <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>WP_4</t>
-  </si>
-  <si>
     <t>SIQ</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>admin panel</t>
   </si>
   <si>
-    <t>user profile</t>
-  </si>
-  <si>
     <t>booking</t>
   </si>
   <si>
@@ -264,7 +249,73 @@
     <t>RATE</t>
   </si>
   <si>
-    <t>PROFILE</t>
+    <t>Release #5 Planning</t>
+  </si>
+  <si>
+    <t>17/5/2025</t>
+  </si>
+  <si>
+    <t>making reg</t>
+  </si>
+  <si>
+    <t>making login</t>
+  </si>
+  <si>
+    <t>making booking</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>moaz</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>asmaa</t>
+  </si>
+  <si>
+    <t>abdelkrim</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>caroline</t>
+  </si>
+  <si>
+    <t>mohsen</t>
+  </si>
+  <si>
+    <t>PM_TK_05</t>
+  </si>
+  <si>
+    <t>test strategy</t>
+  </si>
+  <si>
+    <t>TC PASS</t>
+  </si>
+  <si>
+    <t>TC FAIL</t>
+  </si>
+  <si>
+    <t>Total executed</t>
+  </si>
+  <si>
+    <t>full tested software - comments from last release - PM Tasks</t>
   </si>
 </sst>
 </file>
@@ -591,7 +642,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,18 +658,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,200 +874,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1174,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,191 +1282,197 @@
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
     <col min="20" max="20" width="13.140625" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" customWidth="1"/>
     <col min="22" max="22" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="L1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
+      <c r="D1" s="78"/>
+      <c r="L1" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="69"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="D2" s="82"/>
+      <c r="L2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="37"/>
+      <c r="D3" s="82"/>
+      <c r="L3" s="70">
+        <v>45935</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="L4" s="24" t="s">
+      <c r="D4" s="82"/>
+      <c r="L4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="D5" s="82"/>
+      <c r="L5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="D6" s="82"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="L7" s="24" t="s">
+      <c r="D7" s="82"/>
+      <c r="L7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27" t="s">
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="38" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="38" t="s">
+      <c r="L14" s="50"/>
+      <c r="M14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40" t="s">
+      <c r="P14" s="50"/>
+      <c r="Q14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
       <c r="U14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1382,250 +1481,262 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="67"/>
+      <c r="V15" s="47"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="68"/>
+      <c r="V16" s="48"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="68"/>
+      <c r="V17" s="48"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="68"/>
+      <c r="V18" s="48"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="68"/>
+      <c r="V19" s="48"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="68"/>
+      <c r="V20" s="48"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="68"/>
+      <c r="V21" s="48"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="68"/>
+      <c r="V22" s="48"/>
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="38" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38" t="s">
+      <c r="E26" s="59"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38" t="s">
+      <c r="H26" s="50"/>
+      <c r="I26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="38" t="s">
+      <c r="J26" s="50"/>
+      <c r="K26" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="38" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="38" t="s">
+      <c r="N26" s="50"/>
+      <c r="O26" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40" t="s">
+      <c r="P26" s="50"/>
+      <c r="Q26" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
       <c r="U26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1634,629 +1745,556 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="41" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="24"/>
+      <c r="M27" s="23">
+        <v>3</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="47"/>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="23">
+        <v>3</v>
+      </c>
+      <c r="N28" s="24"/>
+      <c r="O28" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="48"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="23">
+        <v>3</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="48"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="23">
+        <v>2</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="48"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="82" t="s">
+      <c r="H31" s="13"/>
+      <c r="I31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="23">
+        <v>2</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="48"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="58" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" s="23">
+        <v>2</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="67"/>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="68"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="68"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="68"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="68"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="68"/>
+      <c r="V32" s="48"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="68"/>
+      <c r="V33" s="48"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="68"/>
+      <c r="V34" s="48"/>
     </row>
     <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61" t="s">
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61" t="s">
+      <c r="K38" s="28"/>
+      <c r="L38" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61" t="s">
+      <c r="M38" s="28"/>
+      <c r="N38" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="61"/>
-      <c r="P38" s="40" t="s">
+      <c r="O38" s="28"/>
+      <c r="P38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="8" t="s">
+      <c r="Q38" s="41"/>
+      <c r="R38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="71" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D39" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="58" t="s">
+      <c r="K39" s="24"/>
+      <c r="L39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="58" t="s">
+      <c r="M39" s="24"/>
+      <c r="N39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="24"/>
+      <c r="P39" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="38"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="39"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="59"/>
-      <c r="N39" s="58" t="s">
+      <c r="K41" s="19"/>
+      <c r="L41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="59"/>
-      <c r="P39" s="58" t="s">
+      <c r="O41" s="19"/>
+      <c r="P41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="73"/>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="44"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="74"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="64"/>
-      <c r="L41" s="63" t="s">
+      <c r="Q41" s="19"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="39"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M41" s="64"/>
-      <c r="N41" s="63" t="s">
+      <c r="K42" s="19"/>
+      <c r="L42" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="76" t="s">
+      <c r="O42" s="19"/>
+      <c r="P42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="74"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="63" t="s">
+      <c r="Q42" s="19"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="39"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="63" t="s">
+      <c r="K43" s="19"/>
+      <c r="L43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="63" t="s">
+      <c r="O43" s="19"/>
+      <c r="P43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="74"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="66"/>
-      <c r="L43" s="65" t="s">
+      <c r="Q43" s="19"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="39"/>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" s="22"/>
+      <c r="L44" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="22"/>
+      <c r="P44" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="40"/>
+    </row>
+    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D59" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M43" s="66"/>
-      <c r="N43" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="66"/>
-      <c r="P43" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="75"/>
-    </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="73"/>
-    </row>
-    <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="74"/>
-    </row>
-    <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="44"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="74"/>
-    </row>
-    <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="74"/>
-    </row>
-    <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="75"/>
-    </row>
-    <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D58" s="4" t="s">
+      <c r="E59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D59" s="2">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:T28"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F54"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="G50:I54"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:Q51"/>
-    <mergeCell ref="U50:U54"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D39:F43"/>
-    <mergeCell ref="G39:I43"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="I27:J34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
+  <mergeCells count="165">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
     <mergeCell ref="V27:V34"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:N28"/>
@@ -2281,83 +2319,70 @@
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D39:F44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="S39:S44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,7 +2394,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -2411,7 +2436,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -2423,10 +2448,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2438,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -2447,10 +2472,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2459,10 +2484,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2470,8 +2495,14 @@
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <f>SUM(B2:B7)</f>
+        <v>69</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C2:C7)</f>
+        <v>64</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
   </sheetData>
@@ -2481,168 +2512,276 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83A3CF-25C1-44F8-B488-CEFB4336A699}">
-  <dimension ref="C4:H19"/>
+  <dimension ref="C4:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81">
+      <c r="C4" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84">
         <v>26</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81">
+      <c r="C8" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84">
         <v>11</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81">
+      <c r="C12" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84">
         <v>44</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+    </row>
+    <row r="18" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+    </row>
+    <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+    </row>
+    <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+    </row>
+    <row r="22" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
+    </row>
+    <row r="23" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+    </row>
+    <row r="24" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
+    </row>
+    <row r="27" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84">
         <v>67</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="C4:E7"/>
     <mergeCell ref="C8:E11"/>
     <mergeCell ref="C12:E15"/>
-    <mergeCell ref="C16:E19"/>
+    <mergeCell ref="C28:E31"/>
     <mergeCell ref="F4:H7"/>
     <mergeCell ref="F8:H11"/>
     <mergeCell ref="F12:H15"/>
+    <mergeCell ref="F28:H31"/>
     <mergeCell ref="F16:H19"/>
+    <mergeCell ref="C16:E19"/>
+    <mergeCell ref="C20:E23"/>
+    <mergeCell ref="F20:H23"/>
+    <mergeCell ref="C24:E27"/>
+    <mergeCell ref="F24:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2876,18 +3015,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2910,14 +3049,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2932,4 +3063,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D69764-086B-4B8D-9486-51D7F9E1D856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B4F5C-C211-455C-980C-2944B06F321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
   <si>
     <t>Project Name</t>
   </si>
@@ -255,24 +255,6 @@
     <t>17/5/2025</t>
   </si>
   <si>
-    <t>making reg</t>
-  </si>
-  <si>
-    <t>making login</t>
-  </si>
-  <si>
-    <t>making booking</t>
-  </si>
-  <si>
-    <t>gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>moaz</t>
   </si>
   <si>
@@ -315,7 +297,61 @@
     <t>Total executed</t>
   </si>
   <si>
-    <t>full tested software - comments from last release - PM Tasks</t>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>execute reg</t>
+  </si>
+  <si>
+    <t>execute login</t>
+  </si>
+  <si>
+    <t>execute booking</t>
+  </si>
+  <si>
+    <t>execute gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute admin </t>
+  </si>
+  <si>
+    <t>execute rate</t>
+  </si>
+  <si>
+    <t>PM_TK_06</t>
+  </si>
+  <si>
+    <t>Indicators sheet</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Executing Test Case  -Ccomments from last release - PM Tasks</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>asmaa , caroline</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>making RTM</t>
+  </si>
+  <si>
+    <t>Abdelkrim</t>
+  </si>
+  <si>
+    <t>WP_4</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -409,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,133 +699,152 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,17 +854,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,7 +944,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,7 +971,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,6 +985,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1267,14 +1328,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="0.140625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
@@ -1289,190 +1352,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="L1" s="67" t="s">
+      <c r="D1" s="83"/>
+      <c r="L1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="69"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="74"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="L2" s="61" t="s">
+      <c r="D2" s="87"/>
+      <c r="L2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="L3" s="70">
+      <c r="D3" s="87"/>
+      <c r="L3" s="75">
         <v>45935</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="70" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="74"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="87"/>
+      <c r="L4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="L5" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
+      <c r="D5" s="87"/>
+      <c r="L5" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
+      <c r="D6" s="87"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="L7" s="61" t="s">
+      <c r="D7" s="87"/>
+      <c r="L7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="64" t="s">
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="66"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="71"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="49" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="49" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="49" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="49" t="s">
+      <c r="J14" s="34"/>
+      <c r="K14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="49" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="49" t="s">
+      <c r="N14" s="34"/>
+      <c r="O14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="41" t="s">
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
       <c r="U14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1481,262 +1544,282 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="23" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23" t="s">
+      <c r="H15" s="25"/>
+      <c r="I15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="47"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="48"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="48"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="64"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="48"/>
+      <c r="V18" s="64"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="48"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="48"/>
+      <c r="V20" s="64"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="64"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="48"/>
+      <c r="V22" s="64"/>
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="49" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="49" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="34"/>
+      <c r="I26" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="49" t="s">
+      <c r="J26" s="34"/>
+      <c r="K26" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="41" t="s">
+      <c r="N26" s="34"/>
+      <c r="O26" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
       <c r="U26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1745,299 +1828,315 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="29" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="45" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="45" t="s">
+      <c r="H27" s="54"/>
+      <c r="I27" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="54"/>
+      <c r="K27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="24">
+        <v>3</v>
+      </c>
+      <c r="N27" s="25"/>
+      <c r="O27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23">
+      <c r="P27" s="25"/>
+      <c r="Q27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="56"/>
+      <c r="I28" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="56"/>
+      <c r="K28" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="24">
         <v>3</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="23" t="s">
+      <c r="N28" s="25"/>
+      <c r="O28" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="47"/>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="23" t="s">
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="V28" s="64"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="56"/>
+      <c r="K29" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="23">
+      <c r="L29" s="25"/>
+      <c r="M29" s="24">
         <v>3</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="48"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12" t="s">
+      <c r="N29" s="25"/>
+      <c r="O29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23">
-        <v>3</v>
-      </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="25" t="s">
+      <c r="P29" s="25"/>
+      <c r="Q29" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="48"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="V29" s="64"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="12" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23">
+      <c r="H30" s="56"/>
+      <c r="I30" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="56"/>
+      <c r="K30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24">
         <v>2</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="23" t="s">
+      <c r="N30" s="25"/>
+      <c r="O30" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="V30" s="64"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="56"/>
+      <c r="I31" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="56"/>
+      <c r="K31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="25" t="s">
+      <c r="L31" s="25"/>
+      <c r="M31" s="24">
+        <v>2</v>
+      </c>
+      <c r="N31" s="25"/>
+      <c r="O31" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="48"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="23">
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="V31" s="64"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="56"/>
+      <c r="K32" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="24">
         <v>2</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="25" t="s">
+      <c r="N32" s="25"/>
+      <c r="O32" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="48"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="23">
-        <v>2</v>
-      </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="48"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="V32" s="64"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="48"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="64"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="48"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="64"/>
     </row>
     <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28" t="s">
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28" t="s">
+      <c r="K38" s="31"/>
+      <c r="L38" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28" t="s">
+      <c r="M38" s="31"/>
+      <c r="N38" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="41" t="s">
+      <c r="O38" s="31"/>
+      <c r="P38" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="8" t="s">
+      <c r="Q38" s="35"/>
+      <c r="R38" s="9" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="4" t="s">
@@ -2045,179 +2144,338 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="42" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="23" t="s">
+      <c r="H39" s="40"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="23" t="s">
+      <c r="K39" s="25"/>
+      <c r="L39" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="23" t="s">
+      <c r="M39" s="25"/>
+      <c r="N39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="24"/>
-      <c r="P39" s="23" t="s">
+      <c r="O39" s="25"/>
+      <c r="P39" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="38"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S39" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="39"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S40" s="50"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="18" t="s">
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="18" t="s">
+      <c r="K41" s="37"/>
+      <c r="L41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="18" t="s">
+      <c r="M41" s="37"/>
+      <c r="N41" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20" t="s">
+      <c r="O41" s="37"/>
+      <c r="P41" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="39"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S41" s="50"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="18" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="18" t="s">
+      <c r="K42" s="37"/>
+      <c r="L42" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="18" t="s">
+      <c r="M42" s="37"/>
+      <c r="N42" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="19"/>
-      <c r="P42" s="18" t="s">
+      <c r="O42" s="37"/>
+      <c r="P42" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="39"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S42" s="50"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="18" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="18" t="s">
+      <c r="K43" s="37"/>
+      <c r="L43" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="18" t="s">
+      <c r="M43" s="37"/>
+      <c r="N43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="18" t="s">
+      <c r="O43" s="37"/>
+      <c r="P43" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="39"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S43" s="50"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="22"/>
-      <c r="L44" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="21" t="s">
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="37"/>
+      <c r="L44" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" s="37"/>
+      <c r="N44" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="27" t="s">
+      <c r="O44" s="37"/>
+      <c r="P44" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="40"/>
-    </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D59" s="4" t="s">
+      <c r="Q44" s="37"/>
+      <c r="R44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S44" s="50"/>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="45"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="30"/>
+      <c r="N45" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="S45" s="51"/>
+    </row>
+    <row r="47" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="34"/>
+      <c r="K48" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="25"/>
+      <c r="M49" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" s="25"/>
+      <c r="O49" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="11"/>
+    </row>
+    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="2">
-        <v>13</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D61" s="2">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="165">
+  <mergeCells count="191">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B7"/>
@@ -2328,34 +2586,36 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D39:F44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="S39:S44"/>
+    <mergeCell ref="S39:S45"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
@@ -2364,25 +2624,49 @@
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Q27:T28"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I45"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="D39:F45"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D49:F50"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:T50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2394,7 +2678,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2713,9 @@
       <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2441,7 +2727,9 @@
       <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2453,7 +2741,9 @@
       <c r="C4" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2465,31 +2755,37 @@
       <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2497,13 +2793,16 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
-        <v>64</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(D2:D7)</f>
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,257 +2813,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83A3CF-25C1-44F8-B488-CEFB4336A699}">
   <dimension ref="C4:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89">
         <v>26</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84">
-        <v>11</v>
-      </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89">
+        <v>12</v>
+      </c>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84">
-        <v>44</v>
-      </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89">
+        <v>57</v>
+      </c>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
     </row>
     <row r="16" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="C16" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="57">
+        <v>61</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
+      <c r="C20" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="57">
+        <v>13</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="57">
+        <v>74</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+    </row>
+    <row r="25" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
+    </row>
+    <row r="26" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+    </row>
+    <row r="27" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="97"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89">
         <v>83</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-    </row>
-    <row r="25" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89"/>
-    </row>
-    <row r="27" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84">
-        <v>67</v>
-      </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2788,6 +3093,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -3014,22 +3334,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
+    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3046,29 +3376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
-    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B4F5C-C211-455C-980C-2944B06F321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334F1E61-DEAB-4673-A6B1-E595BF632F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
   <sheets>
     <sheet name="planning and status" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,115 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,6 +836,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,86 +860,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -830,104 +911,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,12 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1330,212 +1330,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+    <sheetView topLeftCell="M5" workbookViewId="0">
       <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="0.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:22" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="L1" s="72" t="s">
+      <c r="D1" s="23"/>
+      <c r="L1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="74"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="37"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="L2" s="66" t="s">
+      <c r="D2" s="27"/>
+      <c r="L2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="66" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="L3" s="75">
+      <c r="D3" s="27"/>
+      <c r="L3" s="38">
         <v>45935</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="75" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="L4" s="66" t="s">
+      <c r="D4" s="27"/>
+      <c r="L4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="68"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="L5" s="65" t="s">
+      <c r="D5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86" t="s">
+      <c r="D6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="L7" s="66" t="s">
+      <c r="D7" s="27"/>
+      <c r="L7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="71"/>
-    </row>
-    <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
+    </row>
+    <row r="14" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A14" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="32" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="32" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="32" t="s">
+      <c r="N14" s="44"/>
+      <c r="O14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35" t="s">
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
       <c r="U14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1543,283 +1543,283 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="24" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="24" t="s">
+      <c r="L15" s="64"/>
+      <c r="M15" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24" t="s">
+      <c r="N15" s="64"/>
+      <c r="O15" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="28" t="s">
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
       <c r="U15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V15" s="63">
+      <c r="V15" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="24" t="s">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="64"/>
+      <c r="I16" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="24" t="s">
+      <c r="J16" s="69"/>
+      <c r="K16" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24" t="s">
+      <c r="L16" s="64"/>
+      <c r="M16" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24" t="s">
+      <c r="N16" s="64"/>
+      <c r="O16" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="28" t="s">
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
       <c r="U16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V16" s="64"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="24" t="s">
+      <c r="V16" s="73"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="64"/>
+      <c r="I17" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="24" t="s">
+      <c r="J17" s="69"/>
+      <c r="K17" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24" t="s">
+      <c r="L17" s="64"/>
+      <c r="M17" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24" t="s">
+      <c r="N17" s="64"/>
+      <c r="O17" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="28" t="s">
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
       <c r="U17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V17" s="64"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="V17" s="73"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="64"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
+      <c r="V18" s="73"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="64"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="V19" s="73"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="64"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="V20" s="73"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="64"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="V21" s="73"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="64"/>
-    </row>
-    <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="31" t="s">
+      <c r="V22" s="73"/>
+    </row>
+    <row r="26" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A26" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="32" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="32" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="32" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="32" t="s">
+      <c r="N26" s="44"/>
+      <c r="O26" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="35" t="s">
+      <c r="P26" s="44"/>
+      <c r="Q26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
       <c r="U26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1827,315 +1827,315 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="53" t="s">
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="53" t="s">
+      <c r="H27" s="81"/>
+      <c r="I27" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="24" t="s">
+      <c r="J27" s="81"/>
+      <c r="K27" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="24">
+      <c r="L27" s="64"/>
+      <c r="M27" s="63">
         <v>3</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24" t="s">
+      <c r="N27" s="64"/>
+      <c r="O27" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="24" t="s">
+      <c r="P27" s="64"/>
+      <c r="Q27" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="108" t="s">
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V27" s="63">
+      <c r="V27" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="55" t="s">
+      <c r="H28" s="77"/>
+      <c r="I28" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="24" t="s">
+      <c r="J28" s="77"/>
+      <c r="K28" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="24">
+      <c r="L28" s="64"/>
+      <c r="M28" s="63">
         <v>3</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="29" t="s">
+      <c r="N28" s="64"/>
+      <c r="O28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="29" t="s">
+      <c r="P28" s="71"/>
+      <c r="Q28" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="108" t="s">
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V28" s="64"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="55" t="s">
+      <c r="V28" s="73"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="55" t="s">
+      <c r="H29" s="77"/>
+      <c r="I29" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="24" t="s">
+      <c r="J29" s="77"/>
+      <c r="K29" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="24">
+      <c r="L29" s="64"/>
+      <c r="M29" s="63">
         <v>3</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24" t="s">
+      <c r="N29" s="64"/>
+      <c r="O29" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="28" t="s">
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="108" t="s">
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V29" s="64"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="55" t="s">
+      <c r="V29" s="73"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="55" t="s">
+      <c r="H30" s="77"/>
+      <c r="I30" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="24" t="s">
+      <c r="J30" s="77"/>
+      <c r="K30" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="24">
+      <c r="L30" s="64"/>
+      <c r="M30" s="63">
         <v>2</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24" t="s">
+      <c r="N30" s="64"/>
+      <c r="O30" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="28" t="s">
+      <c r="P30" s="64"/>
+      <c r="Q30" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="108" t="s">
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V30" s="64"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="55" t="s">
+      <c r="V30" s="73"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="55" t="s">
+      <c r="H31" s="77"/>
+      <c r="I31" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="24" t="s">
+      <c r="J31" s="77"/>
+      <c r="K31" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24">
+      <c r="L31" s="64"/>
+      <c r="M31" s="63">
         <v>2</v>
       </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="24" t="s">
+      <c r="N31" s="64"/>
+      <c r="O31" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="28" t="s">
+      <c r="P31" s="64"/>
+      <c r="Q31" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="108" t="s">
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V31" s="64"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="55" t="s">
+      <c r="V31" s="73"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="55" t="s">
+      <c r="H32" s="77"/>
+      <c r="I32" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="24" t="s">
+      <c r="J32" s="77"/>
+      <c r="K32" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="24">
+      <c r="L32" s="64"/>
+      <c r="M32" s="63">
         <v>2</v>
       </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="24" t="s">
+      <c r="N32" s="64"/>
+      <c r="O32" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="28" t="s">
+      <c r="P32" s="64"/>
+      <c r="Q32" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="108" t="s">
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V32" s="64"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
+      <c r="V32" s="73"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
       <c r="U33" s="17"/>
-      <c r="V33" s="64"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="64"/>
-    </row>
-    <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="31" t="s">
+      <c r="V33" s="73"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="73"/>
+    </row>
+    <row r="38" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="D38" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31" t="s">
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31" t="s">
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31" t="s">
+      <c r="K38" s="66"/>
+      <c r="L38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31" t="s">
+      <c r="M38" s="66"/>
+      <c r="N38" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35" t="s">
+      <c r="O38" s="66"/>
+      <c r="P38" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="35"/>
+      <c r="Q38" s="45"/>
       <c r="R38" s="9" t="s">
         <v>21</v>
       </c>
@@ -2143,238 +2143,238 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D39" s="39" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D39" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="57" t="s">
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="24" t="s">
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="24" t="s">
+      <c r="K39" s="64"/>
+      <c r="L39" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="24" t="s">
+      <c r="M39" s="64"/>
+      <c r="N39" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="25"/>
-      <c r="P39" s="24" t="s">
+      <c r="O39" s="64"/>
+      <c r="P39" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="25"/>
+      <c r="Q39" s="64"/>
       <c r="R39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S39" s="49">
+      <c r="S39" s="84">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="69"/>
       <c r="R40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S40" s="50"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="36" t="s">
+      <c r="S40" s="85"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="36" t="s">
+      <c r="K41" s="69"/>
+      <c r="L41" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="37"/>
-      <c r="N41" s="36" t="s">
+      <c r="M41" s="69"/>
+      <c r="N41" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="37"/>
-      <c r="P41" s="52" t="s">
+      <c r="O41" s="69"/>
+      <c r="P41" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="37"/>
+      <c r="Q41" s="69"/>
       <c r="R41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S41" s="50"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="36" t="s">
+      <c r="S41" s="85"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="36" t="s">
+      <c r="K42" s="69"/>
+      <c r="L42" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="36" t="s">
+      <c r="M42" s="69"/>
+      <c r="N42" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="37"/>
-      <c r="P42" s="36" t="s">
+      <c r="O42" s="69"/>
+      <c r="P42" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="37"/>
+      <c r="Q42" s="69"/>
       <c r="R42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S42" s="50"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="36" t="s">
+      <c r="S42" s="85"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="36" t="s">
+      <c r="K43" s="69"/>
+      <c r="L43" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="36" t="s">
+      <c r="M43" s="69"/>
+      <c r="N43" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="36" t="s">
+      <c r="O43" s="69"/>
+      <c r="P43" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="37"/>
+      <c r="Q43" s="69"/>
       <c r="R43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="50"/>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="36" t="s">
+      <c r="S43" s="85"/>
+    </row>
+    <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="K44" s="37"/>
-      <c r="L44" s="36" t="s">
+      <c r="K44" s="69"/>
+      <c r="L44" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="36" t="s">
+      <c r="M44" s="69"/>
+      <c r="N44" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="P44" s="36" t="s">
+      <c r="O44" s="69"/>
+      <c r="P44" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="37"/>
+      <c r="Q44" s="69"/>
       <c r="R44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S44" s="50"/>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="29" t="s">
+      <c r="S44" s="85"/>
+    </row>
+    <row r="45" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="29" t="s">
+      <c r="K45" s="71"/>
+      <c r="L45" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="29" t="s">
+      <c r="M45" s="71"/>
+      <c r="N45" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="O45" s="30"/>
-      <c r="P45" s="38" t="s">
+      <c r="O45" s="71"/>
+      <c r="P45" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="30"/>
+      <c r="Q45" s="71"/>
       <c r="R45" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="S45" s="51"/>
-    </row>
-    <row r="47" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="31" t="s">
+      <c r="S45" s="86"/>
+    </row>
+    <row r="47" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32" t="s">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="32" t="s">
+      <c r="E48" s="67"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="32" t="s">
+      <c r="H48" s="44"/>
+      <c r="I48" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="32" t="s">
+      <c r="J48" s="44"/>
+      <c r="K48" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="34"/>
-      <c r="M48" s="32" t="s">
+      <c r="L48" s="44"/>
+      <c r="M48" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="34"/>
-      <c r="O48" s="32" t="s">
+      <c r="N48" s="44"/>
+      <c r="O48" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="35" t="s">
+      <c r="P48" s="44"/>
+      <c r="Q48" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
       <c r="U48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2382,43 +2382,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="24" t="s">
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26" t="s">
+      <c r="H49" s="64"/>
+      <c r="I49" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="27"/>
-      <c r="K49" s="24" t="s">
+      <c r="J49" s="75"/>
+      <c r="K49" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="24" t="s">
+      <c r="L49" s="64"/>
+      <c r="M49" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N49" s="25"/>
-      <c r="O49" s="24" t="s">
+      <c r="N49" s="64"/>
+      <c r="O49" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="28" t="s">
+      <c r="P49" s="64"/>
+      <c r="Q49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
       <c r="U49" s="14" t="s">
         <v>87</v>
       </c>
@@ -2426,37 +2426,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
       <c r="U50" s="7"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
       <c r="D60" s="4" t="s">
         <v>45</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D61" s="2">
         <v>15</v>
       </c>
@@ -2476,24 +2476,155 @@
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="D49:F50"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="G39:I45"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="D39:F45"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="S39:S45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="A15:C22"/>
@@ -2518,155 +2649,24 @@
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="S39:S45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G39:I45"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="D39:F45"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="D49:F50"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2681,15 +2681,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -2813,263 +2813,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83A3CF-25C1-44F8-B488-CEFB4336A699}">
   <dimension ref="C4:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="88" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91">
         <v>26</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="88" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89">
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91">
         <v>12</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="88" t="s">
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91">
         <v>57</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-    </row>
-    <row r="16" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="98" t="s">
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="57">
-        <v>61</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-    </row>
-    <row r="17" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-    </row>
-    <row r="18" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-    </row>
-    <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-    </row>
-    <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="98" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="88">
+        <v>70</v>
+      </c>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
+    </row>
+    <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+    </row>
+    <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="57">
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="88">
         <v>13</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
-    </row>
-    <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-    </row>
-    <row r="22" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-    </row>
-    <row r="23" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
-    </row>
-    <row r="24" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="98" t="s">
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
+    </row>
+    <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
+    </row>
+    <row r="24" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="57">
-        <v>74</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-    </row>
-    <row r="25" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
-    </row>
-    <row r="26" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
-    </row>
-    <row r="27" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="97"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="88" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="88">
+        <v>73</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="96"/>
+    </row>
+    <row r="26" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
+    </row>
+    <row r="27" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89">
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91">
         <v>83</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3093,21 +3093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -3334,32 +3319,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
-    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3376,4 +3351,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
+    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334F1E61-DEAB-4673-A6B1-E595BF632F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F11CE8F-9781-41CE-A93E-E5E034DBFB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
@@ -679,12 +679,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +726,192 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,192 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,10 +993,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1330,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="M5" workbookViewId="0">
+    <sheetView topLeftCell="M17" workbookViewId="0">
       <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
@@ -1352,190 +1356,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="L1" s="35" t="s">
+      <c r="D1" s="85"/>
+      <c r="L1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="76"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="L2" s="29" t="s">
+      <c r="D2" s="89"/>
+      <c r="L2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="29" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="L3" s="38">
+      <c r="D3" s="89"/>
+      <c r="L3" s="77">
         <v>45935</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="38" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="81"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="L4" s="29" t="s">
+      <c r="D4" s="89"/>
+      <c r="L4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="31"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="70"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="L5" s="28" t="s">
+      <c r="D5" s="89"/>
+      <c r="L5" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
+      <c r="D6" s="89"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="L7" s="29" t="s">
+      <c r="D7" s="89"/>
+      <c r="L7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32" t="s">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="73"/>
     </row>
     <row r="14" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45" t="s">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
       <c r="U14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1544,282 +1548,282 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="46" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="63" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="63" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="63" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="63" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="63" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="65" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V15" s="72">
+      <c r="V15" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="63" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="68" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="48"/>
+      <c r="K16" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="63" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="64"/>
-      <c r="O16" s="63" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="65" t="s">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V16" s="73"/>
+      <c r="V16" s="63"/>
     </row>
     <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="63" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="68" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="63" t="s">
+      <c r="J17" s="48"/>
+      <c r="K17" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="64"/>
-      <c r="M17" s="63" t="s">
+      <c r="L17" s="27"/>
+      <c r="M17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="64"/>
-      <c r="O17" s="63" t="s">
+      <c r="N17" s="27"/>
+      <c r="O17" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="65" t="s">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V17" s="73"/>
+      <c r="V17" s="63"/>
     </row>
     <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="73"/>
+      <c r="V18" s="63"/>
     </row>
     <row r="19" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="73"/>
+      <c r="V19" s="63"/>
     </row>
     <row r="20" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="73"/>
+      <c r="V20" s="63"/>
     </row>
     <row r="21" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="73"/>
+      <c r="V21" s="63"/>
     </row>
     <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="73"/>
+      <c r="V22" s="63"/>
     </row>
     <row r="26" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="44"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="44"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="45" t="s">
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
       <c r="U26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1828,314 +1832,314 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="46" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="80" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="80" t="s">
+      <c r="H27" s="58"/>
+      <c r="I27" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="81"/>
-      <c r="K27" s="63" t="s">
+      <c r="J27" s="58"/>
+      <c r="K27" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="63">
+      <c r="L27" s="27"/>
+      <c r="M27" s="26">
         <v>3</v>
       </c>
-      <c r="N27" s="64"/>
-      <c r="O27" s="63" t="s">
+      <c r="N27" s="27"/>
+      <c r="O27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="63" t="s">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="64"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V27" s="72">
+      <c r="V27" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="76" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="76" t="s">
+      <c r="H28" s="56"/>
+      <c r="I28" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="63" t="s">
+      <c r="J28" s="56"/>
+      <c r="K28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="63">
+      <c r="L28" s="27"/>
+      <c r="M28" s="26">
         <v>3</v>
       </c>
-      <c r="N28" s="64"/>
-      <c r="O28" s="70" t="s">
+      <c r="N28" s="27"/>
+      <c r="O28" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="70" t="s">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="71"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="32"/>
       <c r="U28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V28" s="73"/>
+      <c r="V28" s="63"/>
     </row>
     <row r="29" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="76" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="76" t="s">
+      <c r="H29" s="56"/>
+      <c r="I29" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="77"/>
-      <c r="K29" s="63" t="s">
+      <c r="J29" s="56"/>
+      <c r="K29" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="63">
+      <c r="L29" s="27"/>
+      <c r="M29" s="26">
         <v>3</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="63" t="s">
+      <c r="N29" s="27"/>
+      <c r="O29" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="65" t="s">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V29" s="73"/>
+      <c r="V29" s="63"/>
     </row>
     <row r="30" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="76" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="77"/>
-      <c r="I30" s="76" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="63" t="s">
+      <c r="J30" s="56"/>
+      <c r="K30" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="63">
+      <c r="L30" s="27"/>
+      <c r="M30" s="26">
         <v>2</v>
       </c>
-      <c r="N30" s="64"/>
-      <c r="O30" s="63" t="s">
+      <c r="N30" s="27"/>
+      <c r="O30" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="65" t="s">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V30" s="73"/>
+      <c r="V30" s="63"/>
     </row>
     <row r="31" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="76" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="76" t="s">
+      <c r="H31" s="56"/>
+      <c r="I31" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="63" t="s">
+      <c r="J31" s="56"/>
+      <c r="K31" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="63">
+      <c r="L31" s="27"/>
+      <c r="M31" s="26">
         <v>2</v>
       </c>
-      <c r="N31" s="64"/>
-      <c r="O31" s="63" t="s">
+      <c r="N31" s="27"/>
+      <c r="O31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="65" t="s">
+      <c r="P31" s="27"/>
+      <c r="Q31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
       <c r="U31" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V31" s="73"/>
+      <c r="V31" s="63"/>
     </row>
     <row r="32" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="76" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="76" t="s">
+      <c r="H32" s="56"/>
+      <c r="I32" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="63" t="s">
+      <c r="J32" s="56"/>
+      <c r="K32" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="64"/>
-      <c r="M32" s="63">
+      <c r="L32" s="27"/>
+      <c r="M32" s="26">
         <v>2</v>
       </c>
-      <c r="N32" s="64"/>
-      <c r="O32" s="63" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="65" t="s">
+      <c r="P32" s="27"/>
+      <c r="Q32" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
       <c r="U32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V32" s="73"/>
+      <c r="V32" s="63"/>
     </row>
     <row r="33" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="17"/>
-      <c r="V33" s="73"/>
+      <c r="V33" s="63"/>
     </row>
     <row r="34" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="18"/>
-      <c r="V34" s="73"/>
+      <c r="V34" s="63"/>
     </row>
     <row r="38" spans="1:22" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66" t="s">
+      <c r="K38" s="42"/>
+      <c r="L38" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66" t="s">
+      <c r="M38" s="42"/>
+      <c r="N38" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="66"/>
-      <c r="P38" s="45" t="s">
+      <c r="O38" s="42"/>
+      <c r="P38" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="45"/>
+      <c r="Q38" s="46"/>
       <c r="R38" s="9" t="s">
         <v>21</v>
       </c>
@@ -2144,237 +2148,237 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="88" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="63" t="s">
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="64"/>
-      <c r="L39" s="63" t="s">
+      <c r="K39" s="27"/>
+      <c r="L39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="64"/>
-      <c r="N39" s="63" t="s">
+      <c r="M39" s="27"/>
+      <c r="N39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="64"/>
-      <c r="P39" s="63" t="s">
+      <c r="O39" s="27"/>
+      <c r="P39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="64"/>
+      <c r="Q39" s="27"/>
       <c r="R39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S39" s="84">
+      <c r="S39" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="69"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="48"/>
       <c r="R40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S40" s="85"/>
+      <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="68" t="s">
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="69"/>
-      <c r="L41" s="68" t="s">
+      <c r="K41" s="48"/>
+      <c r="L41" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="69"/>
-      <c r="N41" s="68" t="s">
+      <c r="M41" s="48"/>
+      <c r="N41" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="69"/>
-      <c r="P41" s="87" t="s">
+      <c r="O41" s="48"/>
+      <c r="P41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="69"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S41" s="85"/>
+      <c r="S41" s="52"/>
     </row>
     <row r="42" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="68" t="s">
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="K42" s="69"/>
-      <c r="L42" s="68" t="s">
+      <c r="K42" s="48"/>
+      <c r="L42" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="69"/>
-      <c r="N42" s="68" t="s">
+      <c r="M42" s="48"/>
+      <c r="N42" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="69"/>
-      <c r="P42" s="68" t="s">
+      <c r="O42" s="48"/>
+      <c r="P42" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="69"/>
+      <c r="Q42" s="48"/>
       <c r="R42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S42" s="85"/>
+      <c r="S42" s="52"/>
     </row>
     <row r="43" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="68" t="s">
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="68" t="s">
+      <c r="K43" s="48"/>
+      <c r="L43" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="69"/>
-      <c r="N43" s="68" t="s">
+      <c r="M43" s="48"/>
+      <c r="N43" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="69"/>
-      <c r="P43" s="68" t="s">
+      <c r="O43" s="48"/>
+      <c r="P43" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="69"/>
+      <c r="Q43" s="48"/>
       <c r="R43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="85"/>
+      <c r="S43" s="52"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="68" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="K44" s="69"/>
-      <c r="L44" s="68" t="s">
+      <c r="K44" s="48"/>
+      <c r="L44" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="69"/>
-      <c r="N44" s="68" t="s">
+      <c r="M44" s="48"/>
+      <c r="N44" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="69"/>
-      <c r="P44" s="68" t="s">
+      <c r="O44" s="48"/>
+      <c r="P44" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="69"/>
+      <c r="Q44" s="48"/>
       <c r="R44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="S44" s="85"/>
+      <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="70" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="70" t="s">
+      <c r="K45" s="32"/>
+      <c r="L45" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="71"/>
-      <c r="N45" s="70" t="s">
+      <c r="M45" s="32"/>
+      <c r="N45" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O45" s="71"/>
-      <c r="P45" s="83" t="s">
+      <c r="O45" s="32"/>
+      <c r="P45" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="71"/>
+      <c r="Q45" s="32"/>
       <c r="R45" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="S45" s="86"/>
+      <c r="S45" s="53"/>
     </row>
     <row r="47" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="44"/>
+      <c r="H48" s="45"/>
       <c r="I48" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="44"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="44"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="44"/>
+      <c r="N48" s="45"/>
       <c r="O48" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="45" t="s">
+      <c r="P48" s="45"/>
+      <c r="Q48" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
       <c r="U48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2383,42 +2387,42 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="55"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="89" t="s">
+      <c r="D49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="63" t="s">
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="64"/>
-      <c r="I49" s="74" t="s">
+      <c r="H49" s="27"/>
+      <c r="I49" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="75"/>
-      <c r="K49" s="63" t="s">
+      <c r="J49" s="29"/>
+      <c r="K49" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="L49" s="64"/>
-      <c r="M49" s="63" t="s">
+      <c r="L49" s="27"/>
+      <c r="M49" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N49" s="64"/>
-      <c r="O49" s="63" t="s">
+      <c r="N49" s="27"/>
+      <c r="O49" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="65" t="s">
+      <c r="P49" s="27"/>
+      <c r="Q49" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
       <c r="U49" s="14" t="s">
         <v>87</v>
       </c>
@@ -2427,26 +2431,26 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="65"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
       <c r="U50" s="7"/>
       <c r="V50" s="11"/>
     </row>
@@ -2476,20 +2480,159 @@
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="D49:F50"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:C22"/>
+    <mergeCell ref="D15:F22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="S39:S45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
     <mergeCell ref="G39:I45"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:F48"/>
@@ -2514,159 +2657,20 @@
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="S39:S45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:C22"/>
-    <mergeCell ref="D15:F22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D49:F50"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:T50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,7 +2682,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2811,15 +2815,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83A3CF-25C1-44F8-B488-CEFB4336A699}">
-  <dimension ref="C4:H31"/>
+  <dimension ref="C4:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="8.88671875" style="109"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" s="90" t="s">
         <v>48</v>
       </c>
@@ -2831,7 +2838,7 @@
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -2839,7 +2846,7 @@
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -2847,7 +2854,7 @@
       <c r="G6" s="91"/>
       <c r="H6" s="91"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
@@ -2855,7 +2862,7 @@
       <c r="G7" s="91"/>
       <c r="H7" s="91"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" s="90" t="s">
         <v>49</v>
       </c>
@@ -2867,7 +2874,7 @@
       <c r="G8" s="91"/>
       <c r="H8" s="91"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" s="90"/>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
@@ -2875,7 +2882,7 @@
       <c r="G9" s="91"/>
       <c r="H9" s="91"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C10" s="90"/>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -2883,7 +2890,7 @@
       <c r="G10" s="91"/>
       <c r="H10" s="91"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C11" s="90"/>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -2891,7 +2898,7 @@
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C12" s="90" t="s">
         <v>50</v>
       </c>
@@ -2903,7 +2910,7 @@
       <c r="G12" s="91"/>
       <c r="H12" s="91"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C13" s="90"/>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -2911,7 +2918,7 @@
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C14" s="90"/>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -2919,7 +2926,7 @@
       <c r="G14" s="91"/>
       <c r="H14" s="91"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C15" s="90"/>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -2927,19 +2934,19 @@
       <c r="G15" s="91"/>
       <c r="H15" s="91"/>
     </row>
-    <row r="16" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="100" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="102"/>
-      <c r="F16" s="88">
-        <v>70</v>
+      <c r="F16" s="33">
+        <v>83</v>
       </c>
       <c r="G16" s="92"/>
       <c r="H16" s="93"/>
     </row>
-    <row r="17" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="103"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
@@ -2947,7 +2954,7 @@
       <c r="G17" s="95"/>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="103"/>
       <c r="D18" s="104"/>
       <c r="E18" s="105"/>
@@ -2955,7 +2962,7 @@
       <c r="G18" s="95"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="106"/>
       <c r="D19" s="107"/>
       <c r="E19" s="108"/>
@@ -2963,19 +2970,23 @@
       <c r="G19" s="98"/>
       <c r="H19" s="99"/>
     </row>
-    <row r="20" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="100" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="102"/>
-      <c r="F20" s="88">
-        <v>13</v>
+      <c r="F20" s="33">
+        <v>0</v>
       </c>
       <c r="G20" s="92"/>
       <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="110">
+        <f>F20/F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="103"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
@@ -2983,7 +2994,7 @@
       <c r="G21" s="95"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
       <c r="E22" s="105"/>
@@ -2991,7 +3002,7 @@
       <c r="G22" s="95"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="106"/>
       <c r="D23" s="107"/>
       <c r="E23" s="108"/>
@@ -2999,19 +3010,19 @@
       <c r="G23" s="98"/>
       <c r="H23" s="99"/>
     </row>
-    <row r="24" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="100" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="102"/>
-      <c r="F24" s="88">
-        <v>73</v>
+      <c r="F24" s="33">
+        <v>83</v>
       </c>
       <c r="G24" s="92"/>
       <c r="H24" s="93"/>
     </row>
-    <row r="25" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="103"/>
       <c r="D25" s="104"/>
       <c r="E25" s="105"/>
@@ -3019,15 +3030,19 @@
       <c r="G25" s="95"/>
       <c r="H25" s="96"/>
     </row>
-    <row r="26" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="103"/>
       <c r="D26" s="104"/>
       <c r="E26" s="105"/>
       <c r="F26" s="94"/>
       <c r="G26" s="95"/>
       <c r="H26" s="96"/>
-    </row>
-    <row r="27" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="110">
+        <f>(F28-F24)/F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="106"/>
       <c r="D27" s="107"/>
       <c r="E27" s="108"/>
@@ -3035,7 +3050,7 @@
       <c r="G27" s="98"/>
       <c r="H27" s="99"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="90" t="s">
         <v>51</v>
       </c>
@@ -3047,7 +3062,7 @@
       <c r="G28" s="91"/>
       <c r="H28" s="91"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
@@ -3055,7 +3070,7 @@
       <c r="G29" s="91"/>
       <c r="H29" s="91"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
@@ -3063,7 +3078,7 @@
       <c r="G30" s="91"/>
       <c r="H30" s="91"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="90"/>
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
@@ -3093,6 +3108,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -3319,22 +3349,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
+    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3351,29 +3391,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B1AD-FD5C-4C6F-BEE4-3244702E0CE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e958125d-88d0-4a09-b1e5-988b8facc535"/>
-    <ds:schemaRef ds:uri="7cc05052-2f0c-4475-acff-f76492f95025"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>